--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_dyn_gen_pf_sc_results_0_branch_ward34_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_dyn_gen_pf_sc_results_0_branch_ward34_resonant.xlsx
@@ -994,40 +994,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052506537E-14</v>
+        <v>-2.084258736675753E-14</v>
       </c>
       <c r="O2">
-        <v>1.042124982428609E-14</v>
+        <v>2.605281130619693E-15</v>
       </c>
       <c r="P2">
-        <v>-4.453701581637349E-20</v>
+        <v>-2.08426334839908E-14</v>
       </c>
       <c r="Q2">
-        <v>5.210646841688501E-15</v>
+        <v>5.210646841692865E-15</v>
       </c>
       <c r="R2">
-        <v>2.605795522812271E-15</v>
+        <v>7.816440796777868E-15</v>
       </c>
       <c r="S2">
-        <v>4.727894349048249E-19</v>
+        <v>1.042176804399137E-14</v>
       </c>
       <c r="T2">
-        <v>2.08425873667533E-14</v>
+        <v>1.04212936833749E-14</v>
       </c>
       <c r="U2">
-        <v>5.763410493837118E-09</v>
+        <v>5.763394861895224E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763402682029841E-09</v>
+        <v>-5.763376628794242E-09</v>
       </c>
       <c r="W2">
-        <v>-1.042129368337668E-14</v>
+        <v>-2.605323420844421E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763394861410699E-09</v>
+        <v>-5.763387045439071E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763407893162584E-09</v>
+        <v>5.763387050573831E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1048,40 +1048,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808898</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057459</v>
+        <v>0.5500000117056147</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030184</v>
+        <v>0.5500000121028866</v>
       </c>
       <c r="AI2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808897</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593765</v>
+        <v>0.5500000116592461</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121492562</v>
       </c>
       <c r="AL2">
-        <v>6.92343595716384E-13</v>
+        <v>8.504034937349925E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995567</v>
+        <v>-179.9999999995723</v>
       </c>
       <c r="AN2">
-        <v>179.9999999995499</v>
+        <v>179.9999999995343</v>
       </c>
       <c r="AO2">
-        <v>7.082758124159204E-13</v>
+        <v>8.510916698356036E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999952994</v>
+        <v>-179.9999999953149</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952925</v>
+        <v>179.999999995277</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1125,40 +1125,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.04212936833772E-14</v>
+        <v>-3.647452789181907E-14</v>
       </c>
       <c r="O3">
-        <v>2.049494803798653E-19</v>
+        <v>2.605527845065366E-15</v>
       </c>
       <c r="P3">
-        <v>4.168537993086173E-14</v>
+        <v>2.084279307943075E-14</v>
       </c>
       <c r="Q3">
-        <v>-1.56319405250657E-14</v>
+        <v>1.042129368337567E-14</v>
       </c>
       <c r="R3">
-        <v>1.302645973070846E-14</v>
+        <v>1.823710709272208E-14</v>
       </c>
       <c r="S3">
-        <v>-5.210662603514871E-14</v>
+        <v>-3.126403918270794E-14</v>
       </c>
       <c r="T3">
-        <v>-3.647452789181846E-14</v>
+        <v>-2.605323420845038E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921126409769406E-09</v>
+        <v>-1.921110777828434E-09</v>
       </c>
       <c r="V3">
-        <v>1.921123806265545E-09</v>
+        <v>1.921139438205621E-09</v>
       </c>
       <c r="W3">
-        <v>4.689582157519516E-14</v>
+        <v>1.563194052506854E-14</v>
       </c>
       <c r="X3">
-        <v>1.921131620470234E-09</v>
+        <v>1.92111859385268E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.92111859556471E-09</v>
+        <v>-1.921129016857942E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1179,40 +1179,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808765</v>
+        <v>1.100000023808897</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439205</v>
+        <v>0.5500000116437903</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648446</v>
+        <v>0.5500000121647133</v>
       </c>
       <c r="AI3">
-        <v>1.100000023808766</v>
+        <v>1.100000023808897</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593765</v>
+        <v>0.5500000116592461</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121492562</v>
       </c>
       <c r="AL3">
-        <v>7.251392252311684E-13</v>
+        <v>8.522063799205885E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999938803</v>
+        <v>-179.9999999938959</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938735</v>
+        <v>179.9999999938579</v>
       </c>
       <c r="AO3">
-        <v>7.082758124159204E-13</v>
+        <v>8.510916698356036E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999952994</v>
+        <v>-179.9999999953149</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952925</v>
+        <v>179.999999995277</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1256,40 +1256,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.605323420844159E-14</v>
+        <v>-3.647452789181907E-14</v>
       </c>
       <c r="O4">
-        <v>2.049494803798653E-19</v>
+        <v>2.605527845065366E-15</v>
       </c>
       <c r="P4">
-        <v>2.084279255501348E-14</v>
+        <v>2.084279307943075E-14</v>
       </c>
       <c r="Q4">
-        <v>1.56319405250648E-14</v>
+        <v>1.042129368337567E-14</v>
       </c>
       <c r="R4">
-        <v>2.605166051974046E-15</v>
+        <v>1.823710709272208E-14</v>
       </c>
       <c r="S4">
-        <v>-2.084274497194647E-14</v>
+        <v>-3.126403918270794E-14</v>
       </c>
       <c r="T4">
-        <v>-2.08425873667538E-14</v>
+        <v>-2.605323420845038E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921126409769407E-09</v>
+        <v>-1.921110777828434E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123806265547E-09</v>
+        <v>1.921139438205621E-09</v>
       </c>
       <c r="W4">
-        <v>2.605323420844206E-14</v>
+        <v>1.563194052506854E-14</v>
       </c>
       <c r="X4">
-        <v>1.921131620470233E-09</v>
+        <v>1.92111859385268E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921129016858401E-09</v>
+        <v>-1.921129016857942E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1310,40 +1310,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808765</v>
+        <v>1.100000023808897</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439206</v>
+        <v>0.5500000116437903</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648444</v>
+        <v>0.5500000121647133</v>
       </c>
       <c r="AI4">
-        <v>1.100000023808766</v>
+        <v>1.100000023808897</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593765</v>
+        <v>0.5500000116592461</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121492562</v>
       </c>
       <c r="AL4">
-        <v>7.138106372806309E-13</v>
+        <v>8.522063799205885E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999938803</v>
+        <v>-179.9999999938959</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938734</v>
+        <v>179.9999999938579</v>
       </c>
       <c r="AO4">
-        <v>7.082758124159204E-13</v>
+        <v>8.510916698356036E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999952994</v>
+        <v>-179.9999999953149</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952925</v>
+        <v>179.999999995277</v>
       </c>
     </row>
   </sheetData>
@@ -1531,40 +1531,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052511152E-14</v>
+        <v>5.210646841705023E-15</v>
       </c>
       <c r="O2">
-        <v>-7.307852025730608E-10</v>
+        <v>-7.307855508262516E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039307866162078E-09</v>
+        <v>-2.039301175917117E-09</v>
       </c>
       <c r="Q2">
-        <v>1.042129368340781E-14</v>
+        <v>-1.563194052511227E-14</v>
       </c>
       <c r="R2">
-        <v>7.307843618725196E-10</v>
+        <v>7.308019800576504E-10</v>
       </c>
       <c r="S2">
-        <v>2.039303680338544E-09</v>
+        <v>2.039301176206139E-09</v>
       </c>
       <c r="T2">
-        <v>2.084258736681494E-14</v>
+        <v>-5.210646841703627E-15</v>
       </c>
       <c r="U2">
-        <v>5.822506508613689E-09</v>
+        <v>5.82248300349947E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556072532027602E-09</v>
+        <v>-3.556080082097242E-09</v>
       </c>
       <c r="W2">
-        <v>-2.605323420851877E-14</v>
+        <v>-5.210646841706421E-15</v>
       </c>
       <c r="X2">
-        <v>-5.822503390695197E-09</v>
+        <v>-5.822481915814317E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556074214334644E-09</v>
+        <v>3.556080082425171E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1585,40 +1585,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812017</v>
+        <v>1.100000023812133</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635712</v>
+        <v>0.6816683458634241</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780339</v>
+        <v>0.4761907155779774</v>
       </c>
       <c r="AI2">
-        <v>1.100000023812017</v>
+        <v>1.100000023812133</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299556</v>
+        <v>0.681668345829809</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277806</v>
+        <v>0.4761907156277246</v>
       </c>
       <c r="AL2">
-        <v>5.505429226348665E-13</v>
+        <v>7.682874907433003E-12</v>
       </c>
       <c r="AM2">
-        <v>-164.9034422584273</v>
+        <v>-164.9034422584359</v>
       </c>
       <c r="AN2">
-        <v>158.1097491654785</v>
+        <v>158.109749165458</v>
       </c>
       <c r="AO2">
-        <v>5.650789979120009E-13</v>
+        <v>7.69099755322462E-12</v>
       </c>
       <c r="AP2">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552372</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642543</v>
+        <v>158.1097491642339</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1662,40 +1662,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.627546886805935E-28</v>
+        <v>-3.647452789192814E-14</v>
       </c>
       <c r="O3">
-        <v>2.43599552930455E-10</v>
+        <v>2.436049471216827E-10</v>
       </c>
       <c r="P3">
-        <v>6.797815731353703E-10</v>
+        <v>6.7978661907307E-10</v>
       </c>
       <c r="Q3">
-        <v>-5.21064684170398E-15</v>
+        <v>2.605323420852092E-14</v>
       </c>
       <c r="R3">
-        <v>-2.43587923525643E-10</v>
+        <v>-2.436009885094466E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797941314409186E-10</v>
+        <v>-6.79783255082718E-10</v>
       </c>
       <c r="T3">
-        <v>-2.605323420851886E-14</v>
+        <v>-1.563194052511786E-14</v>
       </c>
       <c r="U3">
-        <v>-1.940852129875164E-09</v>
+        <v>-1.9408473303051E-09</v>
       </c>
       <c r="V3">
-        <v>1.185355816285667E-09</v>
+        <v>1.185368374622947E-09</v>
       </c>
       <c r="W3">
-        <v>2.084258736681505E-14</v>
+        <v>5.210646841707821E-15</v>
       </c>
       <c r="X3">
-        <v>1.940858611460401E-09</v>
+        <v>1.940845053740529E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185350770311873E-09</v>
+        <v>-1.185360002361401E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1716,40 +1716,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023812017</v>
+        <v>1.100000023812133</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187509</v>
+        <v>0.6816683458186044</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443635</v>
+        <v>0.4761907156443075</v>
       </c>
       <c r="AI3">
-        <v>1.100000023812017</v>
+        <v>1.100000023812133</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299556</v>
+        <v>0.681668345829809</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277806</v>
+        <v>0.4761907156277246</v>
       </c>
       <c r="AL3">
-        <v>5.778451376969036E-13</v>
+        <v>7.699331708052818E-12</v>
       </c>
       <c r="AM3">
-        <v>-164.9034422541625</v>
+        <v>-164.903442254171</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638258</v>
       </c>
       <c r="AO3">
-        <v>5.650789979120009E-13</v>
+        <v>7.69099755322462E-12</v>
       </c>
       <c r="AP3">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552372</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642543</v>
+        <v>158.1097491642339</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1793,40 +1793,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-3.64745278919263E-14</v>
+        <v>-3.647452789192814E-14</v>
       </c>
       <c r="O4">
-        <v>2.435928250139806E-10</v>
+        <v>2.436049471216827E-10</v>
       </c>
       <c r="P4">
-        <v>6.797648286851535E-10</v>
+        <v>6.7978661907307E-10</v>
       </c>
       <c r="Q4">
-        <v>2.605323420851877E-14</v>
+        <v>2.605323420852092E-14</v>
       </c>
       <c r="R4">
-        <v>-2.435811956091689E-10</v>
+        <v>-2.436009885094466E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797773869907021E-10</v>
+        <v>-6.79783255082718E-10</v>
       </c>
       <c r="T4">
-        <v>-1.04212936834079E-14</v>
+        <v>-1.563194052511786E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940827189150647E-09</v>
+        <v>-1.9408473303051E-09</v>
       </c>
       <c r="V4">
-        <v>1.185362544202141E-09</v>
+        <v>1.185368374622947E-09</v>
       </c>
       <c r="W4">
-        <v>1.042129368340781E-14</v>
+        <v>5.210646841707821E-15</v>
       </c>
       <c r="X4">
-        <v>1.940833670735883E-09</v>
+        <v>1.940845053740529E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185357498228347E-09</v>
+        <v>-1.185360002361401E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1847,40 +1847,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023812017</v>
+        <v>1.100000023812133</v>
       </c>
       <c r="AG4">
-        <v>0.681668345818751</v>
+        <v>0.6816683458186044</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443634</v>
+        <v>0.4761907156443075</v>
       </c>
       <c r="AI4">
-        <v>1.100000023812017</v>
+        <v>1.100000023812133</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299556</v>
+        <v>0.681668345829809</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277806</v>
+        <v>0.4761907156277246</v>
       </c>
       <c r="AL4">
-        <v>5.665163787924767E-13</v>
+        <v>7.699331708052818E-12</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541625</v>
+        <v>-164.903442254171</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638258</v>
       </c>
       <c r="AO4">
-        <v>5.650789979120009E-13</v>
+        <v>7.69099755322462E-12</v>
       </c>
       <c r="AP4">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552372</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642543</v>
+        <v>158.1097491642339</v>
       </c>
     </row>
   </sheetData>
@@ -2068,40 +2068,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052511152E-14</v>
+        <v>5.210646841705023E-15</v>
       </c>
       <c r="O2">
-        <v>-7.307852025730608E-10</v>
+        <v>-7.307855508262516E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039307866162078E-09</v>
+        <v>-2.039301175917117E-09</v>
       </c>
       <c r="Q2">
-        <v>1.042129368340781E-14</v>
+        <v>-1.563194052511227E-14</v>
       </c>
       <c r="R2">
-        <v>7.307843618725196E-10</v>
+        <v>7.308019800576504E-10</v>
       </c>
       <c r="S2">
-        <v>2.039303680338544E-09</v>
+        <v>2.039301176206139E-09</v>
       </c>
       <c r="T2">
-        <v>2.084258736681494E-14</v>
+        <v>-5.210646841703627E-15</v>
       </c>
       <c r="U2">
-        <v>5.822506508613689E-09</v>
+        <v>5.82248300349947E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556072532027602E-09</v>
+        <v>-3.556080082097242E-09</v>
       </c>
       <c r="W2">
-        <v>-2.605323420851877E-14</v>
+        <v>-5.210646841706421E-15</v>
       </c>
       <c r="X2">
-        <v>-5.822503390695197E-09</v>
+        <v>-5.822481915814317E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556074214334644E-09</v>
+        <v>3.556080082425171E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2122,40 +2122,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812017</v>
+        <v>1.100000023812133</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635712</v>
+        <v>0.6816683458634241</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780339</v>
+        <v>0.4761907155779774</v>
       </c>
       <c r="AI2">
-        <v>1.100000023812017</v>
+        <v>1.100000023812133</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299556</v>
+        <v>0.681668345829809</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277806</v>
+        <v>0.4761907156277246</v>
       </c>
       <c r="AL2">
-        <v>5.505429226348665E-13</v>
+        <v>7.682874907433003E-12</v>
       </c>
       <c r="AM2">
-        <v>-164.9034422584273</v>
+        <v>-164.9034422584359</v>
       </c>
       <c r="AN2">
-        <v>158.1097491654785</v>
+        <v>158.109749165458</v>
       </c>
       <c r="AO2">
-        <v>5.650789979120009E-13</v>
+        <v>7.69099755322462E-12</v>
       </c>
       <c r="AP2">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552372</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642543</v>
+        <v>158.1097491642339</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2199,40 +2199,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.627546886805935E-28</v>
+        <v>-3.647452789192814E-14</v>
       </c>
       <c r="O3">
-        <v>2.43599552930455E-10</v>
+        <v>2.436049471216827E-10</v>
       </c>
       <c r="P3">
-        <v>6.797815731353703E-10</v>
+        <v>6.7978661907307E-10</v>
       </c>
       <c r="Q3">
-        <v>-5.21064684170398E-15</v>
+        <v>2.605323420852092E-14</v>
       </c>
       <c r="R3">
-        <v>-2.43587923525643E-10</v>
+        <v>-2.436009885094466E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797941314409186E-10</v>
+        <v>-6.79783255082718E-10</v>
       </c>
       <c r="T3">
-        <v>-2.605323420851886E-14</v>
+        <v>-1.563194052511786E-14</v>
       </c>
       <c r="U3">
-        <v>-1.940852129875164E-09</v>
+        <v>-1.9408473303051E-09</v>
       </c>
       <c r="V3">
-        <v>1.185355816285667E-09</v>
+        <v>1.185368374622947E-09</v>
       </c>
       <c r="W3">
-        <v>2.084258736681505E-14</v>
+        <v>5.210646841707821E-15</v>
       </c>
       <c r="X3">
-        <v>1.940858611460401E-09</v>
+        <v>1.940845053740529E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185350770311873E-09</v>
+        <v>-1.185360002361401E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2253,40 +2253,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023812017</v>
+        <v>1.100000023812133</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187509</v>
+        <v>0.6816683458186044</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443635</v>
+        <v>0.4761907156443075</v>
       </c>
       <c r="AI3">
-        <v>1.100000023812017</v>
+        <v>1.100000023812133</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299556</v>
+        <v>0.681668345829809</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277806</v>
+        <v>0.4761907156277246</v>
       </c>
       <c r="AL3">
-        <v>5.778451376969036E-13</v>
+        <v>7.699331708052818E-12</v>
       </c>
       <c r="AM3">
-        <v>-164.9034422541625</v>
+        <v>-164.903442254171</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638258</v>
       </c>
       <c r="AO3">
-        <v>5.650789979120009E-13</v>
+        <v>7.69099755322462E-12</v>
       </c>
       <c r="AP3">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552372</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642543</v>
+        <v>158.1097491642339</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2330,40 +2330,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-3.64745278919263E-14</v>
+        <v>-3.647452789192814E-14</v>
       </c>
       <c r="O4">
-        <v>2.435928250139806E-10</v>
+        <v>2.436049471216827E-10</v>
       </c>
       <c r="P4">
-        <v>6.797648286851535E-10</v>
+        <v>6.7978661907307E-10</v>
       </c>
       <c r="Q4">
-        <v>2.605323420851877E-14</v>
+        <v>2.605323420852092E-14</v>
       </c>
       <c r="R4">
-        <v>-2.435811956091689E-10</v>
+        <v>-2.436009885094466E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797773869907021E-10</v>
+        <v>-6.79783255082718E-10</v>
       </c>
       <c r="T4">
-        <v>-1.04212936834079E-14</v>
+        <v>-1.563194052511786E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940827189150647E-09</v>
+        <v>-1.9408473303051E-09</v>
       </c>
       <c r="V4">
-        <v>1.185362544202141E-09</v>
+        <v>1.185368374622947E-09</v>
       </c>
       <c r="W4">
-        <v>1.042129368340781E-14</v>
+        <v>5.210646841707821E-15</v>
       </c>
       <c r="X4">
-        <v>1.940833670735883E-09</v>
+        <v>1.940845053740529E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185357498228347E-09</v>
+        <v>-1.185360002361401E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2384,40 +2384,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023812017</v>
+        <v>1.100000023812133</v>
       </c>
       <c r="AG4">
-        <v>0.681668345818751</v>
+        <v>0.6816683458186044</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443634</v>
+        <v>0.4761907156443075</v>
       </c>
       <c r="AI4">
-        <v>1.100000023812017</v>
+        <v>1.100000023812133</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299556</v>
+        <v>0.681668345829809</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277806</v>
+        <v>0.4761907156277246</v>
       </c>
       <c r="AL4">
-        <v>5.665163787924767E-13</v>
+        <v>7.699331708052818E-12</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541625</v>
+        <v>-164.903442254171</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638258</v>
       </c>
       <c r="AO4">
-        <v>5.650789979120009E-13</v>
+        <v>7.69099755322462E-12</v>
       </c>
       <c r="AP4">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552372</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642543</v>
+        <v>158.1097491642339</v>
       </c>
     </row>
   </sheetData>
@@ -2605,40 +2605,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-9.4739031434715E-15</v>
+        <v>-2.131628207281219E-14</v>
       </c>
       <c r="O2">
-        <v>-4.737053885524563E-15</v>
+        <v>-1.539519479136207E-14</v>
       </c>
       <c r="P2">
-        <v>-4.737054459106166E-15</v>
+        <v>2.36837277207069E-15</v>
       </c>
       <c r="Q2">
-        <v>7.105427357603597E-15</v>
+        <v>1.894780628694424E-14</v>
       </c>
       <c r="R2">
-        <v>9.474684983688495E-15</v>
+        <v>1.302739853408118E-14</v>
       </c>
       <c r="S2">
-        <v>7.106209777079265E-15</v>
+        <v>7.825474183701721E-19</v>
       </c>
       <c r="T2">
-        <v>9.473903143471265E-15</v>
+        <v>1.89478062869432E-14</v>
       </c>
       <c r="U2">
-        <v>4.763111385045242E-09</v>
+        <v>4.763123227423675E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763113757011745E-09</v>
+        <v>-4.763113757011252E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571735602E-15</v>
+        <v>-1.894780628694325E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763116121595246E-09</v>
+        <v>-4.763123227022109E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763113757413309E-09</v>
+        <v>4.763113757412817E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2659,40 +2659,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000000357</v>
+        <v>1.000000000000408</v>
       </c>
       <c r="AG2">
-        <v>0.499999999816962</v>
+        <v>0.4999999998169104</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833945</v>
+        <v>0.5000000001833427</v>
       </c>
       <c r="AI2">
-        <v>1.000000000000357</v>
+        <v>1.000000000000408</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997747571</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002254963</v>
       </c>
       <c r="AL2">
-        <v>7.187676407683538E-13</v>
+        <v>1.467194998636143E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.999999998762</v>
+        <v>-179.9999999987635</v>
       </c>
       <c r="AN2">
-        <v>179.9999999987551</v>
+        <v>179.9999999987535</v>
       </c>
       <c r="AO2">
-        <v>7.315388087776645E-13</v>
+        <v>1.502279551578698E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905894</v>
       </c>
       <c r="AQ2">
-        <v>179.999999990581</v>
+        <v>179.9999999905794</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2736,40 +2736,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.894780628694277E-14</v>
+        <v>-4.736951571735559E-15</v>
       </c>
       <c r="O3">
-        <v>9.474239263630073E-15</v>
+        <v>-1.183901819314973E-15</v>
       </c>
       <c r="P3">
-        <v>3.363111517505249E-19</v>
+        <v>7.105763714217905E-15</v>
       </c>
       <c r="Q3">
-        <v>-1.894780628694283E-14</v>
+        <v>2.368475785867471E-15</v>
       </c>
       <c r="R3">
-        <v>-9.474163757140443E-15</v>
+        <v>3.552453106194573E-15</v>
       </c>
       <c r="S3">
-        <v>2.368214979436085E-15</v>
+        <v>-2.608496582894896E-19</v>
       </c>
       <c r="T3">
-        <v>2.40474432886885E-28</v>
+        <v>-1.421085471520793E-14</v>
       </c>
       <c r="U3">
-        <v>-1.58772905857831E-09</v>
+        <v>-1.587698268392947E-09</v>
       </c>
       <c r="V3">
-        <v>1.58771721771992E-09</v>
+        <v>1.587707743816606E-09</v>
       </c>
       <c r="W3">
-        <v>4.73695157173545E-15</v>
+        <v>1.89478062869438E-14</v>
       </c>
       <c r="X3">
-        <v>1.587724321671359E-09</v>
+        <v>1.587698268437565E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587717217675301E-09</v>
+        <v>-1.587707743771988E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2790,40 +2790,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000000357</v>
+        <v>1.000000000000408</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607574</v>
+        <v>0.499999999760706</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395477</v>
       </c>
       <c r="AI3">
-        <v>1.000000000000357</v>
+        <v>1.000000000000408</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997747571</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002254963</v>
       </c>
       <c r="AL3">
-        <v>7.271643944721282E-13</v>
+        <v>1.513654684995093E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999878631</v>
+        <v>-179.9999999878647</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878563</v>
+        <v>179.9999999878547</v>
       </c>
       <c r="AO3">
-        <v>7.315388087776645E-13</v>
+        <v>1.502279551578698E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905894</v>
       </c>
       <c r="AQ3">
-        <v>179.999999990581</v>
+        <v>179.9999999905794</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2867,40 +2867,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.736951571735751E-15</v>
+        <v>-4.736951571735559E-15</v>
       </c>
       <c r="O4">
-        <v>-4.736615447835519E-15</v>
+        <v>-1.183901819314973E-15</v>
       </c>
       <c r="P4">
-        <v>4.737287880437079E-15</v>
+        <v>7.105763714217905E-15</v>
       </c>
       <c r="Q4">
-        <v>-4.736951571735812E-15</v>
+        <v>2.368475785867471E-15</v>
       </c>
       <c r="R4">
-        <v>4.736690953216334E-15</v>
+        <v>3.552453106194573E-15</v>
       </c>
       <c r="S4">
-        <v>-2.368736591322263E-15</v>
+        <v>-2.608496582894896E-19</v>
       </c>
       <c r="T4">
-        <v>-4.736951571735632E-15</v>
+        <v>-1.421085471520793E-14</v>
       </c>
       <c r="U4">
-        <v>-1.587719584675174E-09</v>
+        <v>-1.587698268392947E-09</v>
       </c>
       <c r="V4">
-        <v>1.587698269913623E-09</v>
+        <v>1.587707743816606E-09</v>
       </c>
       <c r="W4">
-        <v>9.473903143471321E-15</v>
+        <v>1.89478062869438E-14</v>
       </c>
       <c r="X4">
-        <v>1.587714847768223E-09</v>
+        <v>1.587698268437565E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587698269869005E-09</v>
+        <v>-1.587707743771988E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2921,40 +2921,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000000357</v>
+        <v>1.000000000000408</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.499999999760706</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395477</v>
       </c>
       <c r="AI4">
-        <v>1.000000000000357</v>
+        <v>1.000000000000408</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997747571</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002254963</v>
       </c>
       <c r="AL4">
-        <v>7.271643765637189E-13</v>
+        <v>1.513654684995093E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999878631</v>
+        <v>-179.9999999878647</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878563</v>
+        <v>179.9999999878547</v>
       </c>
       <c r="AO4">
-        <v>7.315388087776645E-13</v>
+        <v>1.502279551578698E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905894</v>
       </c>
       <c r="AQ4">
-        <v>179.999999990581</v>
+        <v>179.9999999905794</v>
       </c>
     </row>
   </sheetData>
@@ -3142,40 +3142,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-9.4739031434715E-15</v>
+        <v>-2.131628207281219E-14</v>
       </c>
       <c r="O2">
-        <v>-4.737053885524563E-15</v>
+        <v>-1.539519479136207E-14</v>
       </c>
       <c r="P2">
-        <v>-4.737054459106166E-15</v>
+        <v>2.36837277207069E-15</v>
       </c>
       <c r="Q2">
-        <v>7.105427357603597E-15</v>
+        <v>1.894780628694424E-14</v>
       </c>
       <c r="R2">
-        <v>9.474684983688495E-15</v>
+        <v>1.302739853408118E-14</v>
       </c>
       <c r="S2">
-        <v>7.106209777079265E-15</v>
+        <v>7.825474183701721E-19</v>
       </c>
       <c r="T2">
-        <v>9.473903143471265E-15</v>
+        <v>1.89478062869432E-14</v>
       </c>
       <c r="U2">
-        <v>4.763111385045242E-09</v>
+        <v>4.763123227423675E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763113757011745E-09</v>
+        <v>-4.763113757011252E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571735602E-15</v>
+        <v>-1.894780628694325E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763116121595246E-09</v>
+        <v>-4.763123227022109E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763113757413309E-09</v>
+        <v>4.763113757412817E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3196,40 +3196,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000000357</v>
+        <v>1.000000000000408</v>
       </c>
       <c r="AG2">
-        <v>0.499999999816962</v>
+        <v>0.4999999998169104</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833945</v>
+        <v>0.5000000001833427</v>
       </c>
       <c r="AI2">
-        <v>1.000000000000357</v>
+        <v>1.000000000000408</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997747571</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002254963</v>
       </c>
       <c r="AL2">
-        <v>7.187676407683538E-13</v>
+        <v>1.467194998636143E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.999999998762</v>
+        <v>-179.9999999987635</v>
       </c>
       <c r="AN2">
-        <v>179.9999999987551</v>
+        <v>179.9999999987535</v>
       </c>
       <c r="AO2">
-        <v>7.315388087776645E-13</v>
+        <v>1.502279551578698E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905894</v>
       </c>
       <c r="AQ2">
-        <v>179.999999990581</v>
+        <v>179.9999999905794</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3273,40 +3273,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.894780628694277E-14</v>
+        <v>-4.736951571735559E-15</v>
       </c>
       <c r="O3">
-        <v>9.474239263630073E-15</v>
+        <v>-1.183901819314973E-15</v>
       </c>
       <c r="P3">
-        <v>3.363111517505249E-19</v>
+        <v>7.105763714217905E-15</v>
       </c>
       <c r="Q3">
-        <v>-1.894780628694283E-14</v>
+        <v>2.368475785867471E-15</v>
       </c>
       <c r="R3">
-        <v>-9.474163757140443E-15</v>
+        <v>3.552453106194573E-15</v>
       </c>
       <c r="S3">
-        <v>2.368214979436085E-15</v>
+        <v>-2.608496582894896E-19</v>
       </c>
       <c r="T3">
-        <v>2.40474432886885E-28</v>
+        <v>-1.421085471520793E-14</v>
       </c>
       <c r="U3">
-        <v>-1.58772905857831E-09</v>
+        <v>-1.587698268392947E-09</v>
       </c>
       <c r="V3">
-        <v>1.58771721771992E-09</v>
+        <v>1.587707743816606E-09</v>
       </c>
       <c r="W3">
-        <v>4.73695157173545E-15</v>
+        <v>1.89478062869438E-14</v>
       </c>
       <c r="X3">
-        <v>1.587724321671359E-09</v>
+        <v>1.587698268437565E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587717217675301E-09</v>
+        <v>-1.587707743771988E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3327,40 +3327,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000000357</v>
+        <v>1.000000000000408</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607574</v>
+        <v>0.499999999760706</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395477</v>
       </c>
       <c r="AI3">
-        <v>1.000000000000357</v>
+        <v>1.000000000000408</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997747571</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002254963</v>
       </c>
       <c r="AL3">
-        <v>7.271643944721282E-13</v>
+        <v>1.513654684995093E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999878631</v>
+        <v>-179.9999999878647</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878563</v>
+        <v>179.9999999878547</v>
       </c>
       <c r="AO3">
-        <v>7.315388087776645E-13</v>
+        <v>1.502279551578698E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905894</v>
       </c>
       <c r="AQ3">
-        <v>179.999999990581</v>
+        <v>179.9999999905794</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3404,40 +3404,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.736951571735751E-15</v>
+        <v>-4.736951571735559E-15</v>
       </c>
       <c r="O4">
-        <v>-4.736615447835519E-15</v>
+        <v>-1.183901819314973E-15</v>
       </c>
       <c r="P4">
-        <v>4.737287880437079E-15</v>
+        <v>7.105763714217905E-15</v>
       </c>
       <c r="Q4">
-        <v>-4.736951571735812E-15</v>
+        <v>2.368475785867471E-15</v>
       </c>
       <c r="R4">
-        <v>4.736690953216334E-15</v>
+        <v>3.552453106194573E-15</v>
       </c>
       <c r="S4">
-        <v>-2.368736591322263E-15</v>
+        <v>-2.608496582894896E-19</v>
       </c>
       <c r="T4">
-        <v>-4.736951571735632E-15</v>
+        <v>-1.421085471520793E-14</v>
       </c>
       <c r="U4">
-        <v>-1.587719584675174E-09</v>
+        <v>-1.587698268392947E-09</v>
       </c>
       <c r="V4">
-        <v>1.587698269913623E-09</v>
+        <v>1.587707743816606E-09</v>
       </c>
       <c r="W4">
-        <v>9.473903143471321E-15</v>
+        <v>1.89478062869438E-14</v>
       </c>
       <c r="X4">
-        <v>1.587714847768223E-09</v>
+        <v>1.587698268437565E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587698269869005E-09</v>
+        <v>-1.587707743771988E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3458,40 +3458,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000000357</v>
+        <v>1.000000000000408</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.499999999760706</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395477</v>
       </c>
       <c r="AI4">
-        <v>1.000000000000357</v>
+        <v>1.000000000000408</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997747571</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002254963</v>
       </c>
       <c r="AL4">
-        <v>7.271643765637189E-13</v>
+        <v>1.513654684995093E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999878631</v>
+        <v>-179.9999999878647</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878563</v>
+        <v>179.9999999878547</v>
       </c>
       <c r="AO4">
-        <v>7.315388087776645E-13</v>
+        <v>1.502279551578698E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905894</v>
       </c>
       <c r="AQ4">
-        <v>179.999999990581</v>
+        <v>179.9999999905794</v>
       </c>
     </row>
   </sheetData>
@@ -3679,40 +3679,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-4.736951571761456E-15</v>
+        <v>-4.736951571761897E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559647705424282E-10</v>
+        <v>-5.559665443995285E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551458687093985E-09</v>
+        <v>-1.551455382895284E-09</v>
       </c>
       <c r="Q2">
-        <v>2.36847578588074E-15</v>
+        <v>2.283490240940109E-28</v>
       </c>
       <c r="R2">
-        <v>5.559676023600634E-10</v>
+        <v>5.559707406345205E-10</v>
       </c>
       <c r="S2">
-        <v>1.551457898520399E-09</v>
+        <v>1.55145868757378E-09</v>
       </c>
       <c r="T2">
-        <v>-2.36847578588079E-15</v>
+        <v>7.105427357642483E-15</v>
       </c>
       <c r="U2">
-        <v>4.833152290628798E-09</v>
+        <v>4.833147412664426E-09</v>
       </c>
       <c r="V2">
-        <v>-3.10889827966872E-09</v>
+        <v>-3.108895082314173E-09</v>
       </c>
       <c r="W2">
-        <v>2.505580672434495E-29</v>
+        <v>-9.473903143523459E-15</v>
       </c>
       <c r="X2">
-        <v>-4.833145672691931E-09</v>
+        <v>-4.83314638906791E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108889838617948E-09</v>
+        <v>3.108898279951784E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3733,40 +3733,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000005801</v>
+        <v>1.000000000005854</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891387</v>
+        <v>0.6078088903890846</v>
       </c>
       <c r="AH2">
-        <v>0.4340870104140592</v>
+        <v>0.434087010414014</v>
       </c>
       <c r="AI2">
-        <v>1.000000000005801</v>
+        <v>1.000000000005854</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903607473</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104724683</v>
       </c>
       <c r="AL2">
-        <v>5.970551300423147E-13</v>
+        <v>1.350278514201313E-12</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
       </c>
       <c r="AN2">
-        <v>160.6235536346805</v>
+        <v>160.6235536346765</v>
       </c>
       <c r="AO2">
-        <v>6.061248276881061E-13</v>
+        <v>1.380997371232524E-12</v>
       </c>
       <c r="AP2">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242506</v>
       </c>
       <c r="AQ2">
-        <v>160.6235536296895</v>
+        <v>160.6235536296854</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3810,40 +3810,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.184237892940377E-14</v>
+        <v>2.368475785881152E-15</v>
       </c>
       <c r="O3">
-        <v>1.853262067873465E-10</v>
+        <v>1.85318975260731E-10</v>
       </c>
       <c r="P3">
-        <v>5.171620194541603E-10</v>
+        <v>5.171562001099884E-10</v>
       </c>
       <c r="Q3">
-        <v>-1.184237892940375E-14</v>
+        <v>-2.368475785881093E-15</v>
       </c>
       <c r="R3">
-        <v>-1.853261725663145E-10</v>
+        <v>-1.853147794521665E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171575644740245E-10</v>
+        <v>-5.171528958579266E-10</v>
       </c>
       <c r="T3">
-        <v>-7.105427357642095E-15</v>
+        <v>-1.184237892940426E-14</v>
       </c>
       <c r="U3">
-        <v>-1.611057540328719E-09</v>
+        <v>-1.611040040931123E-09</v>
       </c>
       <c r="V3">
-        <v>1.036300577410314E-09</v>
+        <v>1.03630262403621E-09</v>
       </c>
       <c r="W3">
-        <v>4.736951571761356E-15</v>
+        <v>9.4739031435234E-15</v>
       </c>
       <c r="X3">
-        <v>1.611063475804907E-09</v>
+        <v>1.611041064275642E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036306503567649E-09</v>
+        <v>-1.036299426650595E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3864,40 +3864,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000005801</v>
+        <v>1.000000000005853</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513558</v>
+        <v>0.6078088903513016</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919533</v>
       </c>
       <c r="AI3">
-        <v>1.000000000005801</v>
+        <v>1.000000000005854</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903607473</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104724683</v>
       </c>
       <c r="AL3">
-        <v>6.025079221054697E-13</v>
+        <v>1.393913639956706E-12</v>
       </c>
       <c r="AM3">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222525</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280259</v>
+        <v>160.6235536280218</v>
       </c>
       <c r="AO3">
-        <v>6.061248276881061E-13</v>
+        <v>1.380997371232524E-12</v>
       </c>
       <c r="AP3">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242506</v>
       </c>
       <c r="AQ3">
-        <v>160.6235536296895</v>
+        <v>160.6235536296854</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3941,40 +3941,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-4.73695157176143E-15</v>
+        <v>2.368475785881152E-15</v>
       </c>
       <c r="O4">
-        <v>1.853178836122772E-10</v>
+        <v>1.85318975260731E-10</v>
       </c>
       <c r="P4">
-        <v>5.171528959112104E-10</v>
+        <v>5.171562001099884E-10</v>
       </c>
       <c r="Q4">
-        <v>2.368475785880766E-15</v>
+        <v>-2.368475785881093E-15</v>
       </c>
       <c r="R4">
-        <v>-1.853178493912457E-10</v>
+        <v>-1.853147794521665E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171575644740245E-10</v>
+        <v>-5.171528958579266E-10</v>
       </c>
       <c r="T4">
-        <v>-4.736951571761529E-15</v>
+        <v>-1.184237892940426E-14</v>
       </c>
       <c r="U4">
-        <v>-1.611047716065382E-09</v>
+        <v>-1.611040040931123E-09</v>
       </c>
       <c r="V4">
-        <v>1.03629942668224E-09</v>
+        <v>1.03630262403621E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368475785880715E-15</v>
+        <v>9.4739031435234E-15</v>
       </c>
       <c r="X4">
-        <v>1.61105365154157E-09</v>
+        <v>1.611041064275642E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036306503567649E-09</v>
+        <v>-1.036299426650595E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3995,40 +3995,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000005801</v>
+        <v>1.000000000005853</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513557</v>
+        <v>0.6078088903513016</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919983</v>
+        <v>0.4340870104919533</v>
       </c>
       <c r="AI4">
-        <v>1.000000000005801</v>
+        <v>1.000000000005854</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903607473</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104724683</v>
       </c>
       <c r="AL4">
-        <v>5.955822512775178E-13</v>
+        <v>1.393913639956706E-12</v>
       </c>
       <c r="AM4">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222525</v>
       </c>
       <c r="AN4">
-        <v>160.6235536280259</v>
+        <v>160.6235536280218</v>
       </c>
       <c r="AO4">
-        <v>6.061248276881061E-13</v>
+        <v>1.380997371232524E-12</v>
       </c>
       <c r="AP4">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242506</v>
       </c>
       <c r="AQ4">
-        <v>160.6235536296895</v>
+        <v>160.6235536296854</v>
       </c>
     </row>
   </sheetData>
@@ -4216,40 +4216,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-4.736951571761456E-15</v>
+        <v>-4.736951571761897E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559647705424282E-10</v>
+        <v>-5.559665443995285E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551458687093985E-09</v>
+        <v>-1.551455382895284E-09</v>
       </c>
       <c r="Q2">
-        <v>2.36847578588074E-15</v>
+        <v>2.283490240940109E-28</v>
       </c>
       <c r="R2">
-        <v>5.559676023600634E-10</v>
+        <v>5.559707406345205E-10</v>
       </c>
       <c r="S2">
-        <v>1.551457898520399E-09</v>
+        <v>1.55145868757378E-09</v>
       </c>
       <c r="T2">
-        <v>-2.36847578588079E-15</v>
+        <v>7.105427357642483E-15</v>
       </c>
       <c r="U2">
-        <v>4.833152290628798E-09</v>
+        <v>4.833147412664426E-09</v>
       </c>
       <c r="V2">
-        <v>-3.10889827966872E-09</v>
+        <v>-3.108895082314173E-09</v>
       </c>
       <c r="W2">
-        <v>2.505580672434495E-29</v>
+        <v>-9.473903143523459E-15</v>
       </c>
       <c r="X2">
-        <v>-4.833145672691931E-09</v>
+        <v>-4.83314638906791E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108889838617948E-09</v>
+        <v>3.108898279951784E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4270,40 +4270,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000005801</v>
+        <v>1.000000000005854</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891387</v>
+        <v>0.6078088903890846</v>
       </c>
       <c r="AH2">
-        <v>0.4340870104140592</v>
+        <v>0.434087010414014</v>
       </c>
       <c r="AI2">
-        <v>1.000000000005801</v>
+        <v>1.000000000005854</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903607473</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104724683</v>
       </c>
       <c r="AL2">
-        <v>5.970551300423147E-13</v>
+        <v>1.350278514201313E-12</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
       </c>
       <c r="AN2">
-        <v>160.6235536346805</v>
+        <v>160.6235536346765</v>
       </c>
       <c r="AO2">
-        <v>6.061248276881061E-13</v>
+        <v>1.380997371232524E-12</v>
       </c>
       <c r="AP2">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242506</v>
       </c>
       <c r="AQ2">
-        <v>160.6235536296895</v>
+        <v>160.6235536296854</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4347,40 +4347,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.184237892940377E-14</v>
+        <v>2.368475785881152E-15</v>
       </c>
       <c r="O3">
-        <v>1.853262067873465E-10</v>
+        <v>1.85318975260731E-10</v>
       </c>
       <c r="P3">
-        <v>5.171620194541603E-10</v>
+        <v>5.171562001099884E-10</v>
       </c>
       <c r="Q3">
-        <v>-1.184237892940375E-14</v>
+        <v>-2.368475785881093E-15</v>
       </c>
       <c r="R3">
-        <v>-1.853261725663145E-10</v>
+        <v>-1.853147794521665E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171575644740245E-10</v>
+        <v>-5.171528958579266E-10</v>
       </c>
       <c r="T3">
-        <v>-7.105427357642095E-15</v>
+        <v>-1.184237892940426E-14</v>
       </c>
       <c r="U3">
-        <v>-1.611057540328719E-09</v>
+        <v>-1.611040040931123E-09</v>
       </c>
       <c r="V3">
-        <v>1.036300577410314E-09</v>
+        <v>1.03630262403621E-09</v>
       </c>
       <c r="W3">
-        <v>4.736951571761356E-15</v>
+        <v>9.4739031435234E-15</v>
       </c>
       <c r="X3">
-        <v>1.611063475804907E-09</v>
+        <v>1.611041064275642E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036306503567649E-09</v>
+        <v>-1.036299426650595E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4401,40 +4401,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000005801</v>
+        <v>1.000000000005853</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513558</v>
+        <v>0.6078088903513016</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919533</v>
       </c>
       <c r="AI3">
-        <v>1.000000000005801</v>
+        <v>1.000000000005854</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903607473</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104724683</v>
       </c>
       <c r="AL3">
-        <v>6.025079221054697E-13</v>
+        <v>1.393913639956706E-12</v>
       </c>
       <c r="AM3">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222525</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280259</v>
+        <v>160.6235536280218</v>
       </c>
       <c r="AO3">
-        <v>6.061248276881061E-13</v>
+        <v>1.380997371232524E-12</v>
       </c>
       <c r="AP3">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242506</v>
       </c>
       <c r="AQ3">
-        <v>160.6235536296895</v>
+        <v>160.6235536296854</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4478,40 +4478,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-4.73695157176143E-15</v>
+        <v>2.368475785881152E-15</v>
       </c>
       <c r="O4">
-        <v>1.853178836122772E-10</v>
+        <v>1.85318975260731E-10</v>
       </c>
       <c r="P4">
-        <v>5.171528959112104E-10</v>
+        <v>5.171562001099884E-10</v>
       </c>
       <c r="Q4">
-        <v>2.368475785880766E-15</v>
+        <v>-2.368475785881093E-15</v>
       </c>
       <c r="R4">
-        <v>-1.853178493912457E-10</v>
+        <v>-1.853147794521665E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171575644740245E-10</v>
+        <v>-5.171528958579266E-10</v>
       </c>
       <c r="T4">
-        <v>-4.736951571761529E-15</v>
+        <v>-1.184237892940426E-14</v>
       </c>
       <c r="U4">
-        <v>-1.611047716065382E-09</v>
+        <v>-1.611040040931123E-09</v>
       </c>
       <c r="V4">
-        <v>1.03629942668224E-09</v>
+        <v>1.03630262403621E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368475785880715E-15</v>
+        <v>9.4739031435234E-15</v>
       </c>
       <c r="X4">
-        <v>1.61105365154157E-09</v>
+        <v>1.611041064275642E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036306503567649E-09</v>
+        <v>-1.036299426650595E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4532,40 +4532,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000005801</v>
+        <v>1.000000000005853</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513557</v>
+        <v>0.6078088903513016</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919983</v>
+        <v>0.4340870104919533</v>
       </c>
       <c r="AI4">
-        <v>1.000000000005801</v>
+        <v>1.000000000005854</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903607473</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104724683</v>
       </c>
       <c r="AL4">
-        <v>5.955822512775178E-13</v>
+        <v>1.393913639956706E-12</v>
       </c>
       <c r="AM4">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222525</v>
       </c>
       <c r="AN4">
-        <v>160.6235536280259</v>
+        <v>160.6235536280218</v>
       </c>
       <c r="AO4">
-        <v>6.061248276881061E-13</v>
+        <v>1.380997371232524E-12</v>
       </c>
       <c r="AP4">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242506</v>
       </c>
       <c r="AQ4">
-        <v>160.6235536296895</v>
+        <v>160.6235536296854</v>
       </c>
     </row>
   </sheetData>
@@ -4756,40 +4756,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957781560702302E-09</v>
+        <v>-2.957772876291936E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394846386949858E-10</v>
+        <v>-7.394465842816168E-10</v>
       </c>
       <c r="P2">
-        <v>-7.393878743358001E-10</v>
+        <v>-7.394600751758457E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957780692514936E-09</v>
+        <v>2.95777113966343E-09</v>
       </c>
       <c r="R2">
-        <v>7.394692790451266E-10</v>
+        <v>7.394402497368289E-10</v>
       </c>
       <c r="S2">
-        <v>7.394014120568497E-10</v>
+        <v>7.394744813380362E-10</v>
       </c>
       <c r="T2">
-        <v>2.778925923274713E-14</v>
+        <v>-8.692991693008909E-16</v>
       </c>
       <c r="U2">
-        <v>-3.842280366037172E-09</v>
+        <v>-3.842277160322703E-09</v>
       </c>
       <c r="V2">
-        <v>3.842263890287338E-09</v>
+        <v>3.842249995229479E-09</v>
       </c>
       <c r="W2">
-        <v>-1.736767760867438E-14</v>
+        <v>2.606469388800949E-15</v>
       </c>
       <c r="X2">
-        <v>3.842285661929419E-09</v>
+        <v>3.842280719332667E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.842261284891933E-09</v>
+        <v>-3.842251902386609E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4810,40 +4810,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3666666746541442</v>
+        <v>0.3666666746542738</v>
       </c>
       <c r="AH2">
-        <v>0.9701088351760903</v>
+        <v>0.9701088351759717</v>
       </c>
       <c r="AI2">
-        <v>0.9701088350717375</v>
+        <v>0.9701088350718077</v>
       </c>
       <c r="AJ2">
-        <v>0.366666674685604</v>
+        <v>0.3666666746857338</v>
       </c>
       <c r="AK2">
-        <v>0.9701088351965892</v>
+        <v>0.9701088351964703</v>
       </c>
       <c r="AL2">
-        <v>0.970108835057184</v>
+        <v>0.9701088350572548</v>
       </c>
       <c r="AM2">
-        <v>1.660615800821346E-08</v>
+        <v>1.662109857800835E-08</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946492836</v>
+        <v>-100.8933946492773</v>
       </c>
       <c r="AO2">
-        <v>100.8933946504709</v>
+        <v>100.8933946504624</v>
       </c>
       <c r="AP2">
-        <v>2.21839221277475E-08</v>
+        <v>2.219884181899335E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499904</v>
       </c>
       <c r="AR2">
-        <v>100.8933946515823</v>
+        <v>100.8933946515739</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -4887,40 +4887,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859242922097519E-10</v>
+        <v>9.859190815632571E-10</v>
       </c>
       <c r="O3">
-        <v>2.464741104950735E-10</v>
+        <v>2.464661709412557E-10</v>
       </c>
       <c r="P3">
-        <v>2.464728078333881E-10</v>
+        <v>2.46520538681989E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859251606226942E-10</v>
+        <v>-9.859242921819051E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464894702013287E-10</v>
+        <v>-2.464815306475104E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464682952738038E-10</v>
+        <v>-2.464889508071939E-10</v>
       </c>
       <c r="T3">
-        <v>4.137257760532235E-19</v>
+        <v>-8.680271594009346E-16</v>
       </c>
       <c r="U3">
-        <v>1.280765678953885E-09</v>
+        <v>1.280773056526706E-09</v>
       </c>
       <c r="V3">
-        <v>-1.280758909918218E-09</v>
+        <v>-1.280763763164549E-09</v>
       </c>
       <c r="W3">
-        <v>-3.474146294859792E-15</v>
+        <v>2.604941432085502E-15</v>
       </c>
       <c r="X3">
-        <v>-1.280760383125627E-09</v>
+        <v>-1.280767760698448E-09</v>
       </c>
       <c r="Y3">
-        <v>1.280759778367358E-09</v>
+        <v>1.28076984226053E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4941,40 +4941,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3666666746960905</v>
+        <v>0.3666666746962198</v>
       </c>
       <c r="AH3">
-        <v>0.9701088352034221</v>
+        <v>0.9701088352033029</v>
       </c>
       <c r="AI3">
-        <v>0.9701088350523328</v>
+        <v>0.970108835052404</v>
       </c>
       <c r="AJ3">
-        <v>0.366666674685604</v>
+        <v>0.3666666746857338</v>
       </c>
       <c r="AK3">
-        <v>0.9701088351965892</v>
+        <v>0.9701088351964703</v>
       </c>
       <c r="AL3">
-        <v>0.970108835057184</v>
+        <v>0.9701088350572548</v>
       </c>
       <c r="AM3">
-        <v>2.404316541434837E-08</v>
+        <v>2.405813048344731E-08</v>
       </c>
       <c r="AN3">
-        <v>-100.8933946502344</v>
+        <v>-100.8933946502281</v>
       </c>
       <c r="AO3">
-        <v>100.8933946519528</v>
+        <v>100.8933946519444</v>
       </c>
       <c r="AP3">
-        <v>2.21839221277475E-08</v>
+        <v>2.219884181899335E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499904</v>
       </c>
       <c r="AR3">
-        <v>100.8933946515823</v>
+        <v>100.8933946515739</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5018,40 +5018,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859208184451897E-10</v>
+        <v>9.859190815632571E-10</v>
       </c>
       <c r="O4">
-        <v>2.464813987178638E-10</v>
+        <v>2.464661709412557E-10</v>
       </c>
       <c r="P4">
-        <v>2.464719393922477E-10</v>
+        <v>2.46520538681989E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859216868581351E-10</v>
+        <v>-9.859242921819051E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464894702013287E-10</v>
+        <v>-2.464815306475104E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464674268326634E-10</v>
+        <v>-2.464889508071939E-10</v>
       </c>
       <c r="T4">
-        <v>4.13724251583203E-19</v>
+        <v>-8.680271594009346E-16</v>
       </c>
       <c r="U4">
-        <v>1.280754916966533E-09</v>
+        <v>1.280773056526706E-09</v>
       </c>
       <c r="V4">
-        <v>-1.280754397365683E-09</v>
+        <v>-1.280763763164549E-09</v>
       </c>
       <c r="W4">
-        <v>3.473382830302995E-15</v>
+        <v>2.604941432085502E-15</v>
       </c>
       <c r="X4">
-        <v>-1.280760383125627E-09</v>
+        <v>-1.280767760698448E-09</v>
       </c>
       <c r="Y4">
-        <v>1.280755265814823E-09</v>
+        <v>1.28076984226053E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5072,40 +5072,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3666666746960904</v>
+        <v>0.3666666746962198</v>
       </c>
       <c r="AH4">
-        <v>0.9701088352034221</v>
+        <v>0.9701088352033029</v>
       </c>
       <c r="AI4">
-        <v>0.9701088350523329</v>
+        <v>0.970108835052404</v>
       </c>
       <c r="AJ4">
-        <v>0.366666674685604</v>
+        <v>0.3666666746857338</v>
       </c>
       <c r="AK4">
-        <v>0.9701088351965892</v>
+        <v>0.9701088351964703</v>
       </c>
       <c r="AL4">
-        <v>0.970108835057184</v>
+        <v>0.9701088350572548</v>
       </c>
       <c r="AM4">
-        <v>2.404316153431854E-08</v>
+        <v>2.405813048344731E-08</v>
       </c>
       <c r="AN4">
-        <v>-100.8933946502344</v>
+        <v>-100.8933946502281</v>
       </c>
       <c r="AO4">
-        <v>100.8933946519528</v>
+        <v>100.8933946519444</v>
       </c>
       <c r="AP4">
-        <v>2.21839221277475E-08</v>
+        <v>2.219884181899335E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499904</v>
       </c>
       <c r="AR4">
-        <v>100.8933946515823</v>
+        <v>100.8933946515739</v>
       </c>
     </row>
   </sheetData>
@@ -5296,40 +5296,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957781560702302E-09</v>
+        <v>-2.957772876291936E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394846386949858E-10</v>
+        <v>-7.394465842816168E-10</v>
       </c>
       <c r="P2">
-        <v>-7.393878743358001E-10</v>
+        <v>-7.394600751758457E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957780692514936E-09</v>
+        <v>2.95777113966343E-09</v>
       </c>
       <c r="R2">
-        <v>7.394692790451266E-10</v>
+        <v>7.394402497368289E-10</v>
       </c>
       <c r="S2">
-        <v>7.394014120568497E-10</v>
+        <v>7.394744813380362E-10</v>
       </c>
       <c r="T2">
-        <v>2.778925923274713E-14</v>
+        <v>-8.692991693008909E-16</v>
       </c>
       <c r="U2">
-        <v>-3.842280366037172E-09</v>
+        <v>-3.842277160322703E-09</v>
       </c>
       <c r="V2">
-        <v>3.842263890287338E-09</v>
+        <v>3.842249995229479E-09</v>
       </c>
       <c r="W2">
-        <v>-1.736767760867438E-14</v>
+        <v>2.606469388800949E-15</v>
       </c>
       <c r="X2">
-        <v>3.842285661929419E-09</v>
+        <v>3.842280719332667E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.842261284891933E-09</v>
+        <v>-3.842251902386609E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5350,40 +5350,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3666666746541442</v>
+        <v>0.3666666746542738</v>
       </c>
       <c r="AH2">
-        <v>0.9701088351760903</v>
+        <v>0.9701088351759717</v>
       </c>
       <c r="AI2">
-        <v>0.9701088350717375</v>
+        <v>0.9701088350718077</v>
       </c>
       <c r="AJ2">
-        <v>0.366666674685604</v>
+        <v>0.3666666746857338</v>
       </c>
       <c r="AK2">
-        <v>0.9701088351965892</v>
+        <v>0.9701088351964703</v>
       </c>
       <c r="AL2">
-        <v>0.970108835057184</v>
+        <v>0.9701088350572548</v>
       </c>
       <c r="AM2">
-        <v>1.660615800821346E-08</v>
+        <v>1.662109857800835E-08</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946492836</v>
+        <v>-100.8933946492773</v>
       </c>
       <c r="AO2">
-        <v>100.8933946504709</v>
+        <v>100.8933946504624</v>
       </c>
       <c r="AP2">
-        <v>2.21839221277475E-08</v>
+        <v>2.219884181899335E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499904</v>
       </c>
       <c r="AR2">
-        <v>100.8933946515823</v>
+        <v>100.8933946515739</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5427,40 +5427,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859242922097519E-10</v>
+        <v>9.859190815632571E-10</v>
       </c>
       <c r="O3">
-        <v>2.464741104950735E-10</v>
+        <v>2.464661709412557E-10</v>
       </c>
       <c r="P3">
-        <v>2.464728078333881E-10</v>
+        <v>2.46520538681989E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859251606226942E-10</v>
+        <v>-9.859242921819051E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464894702013287E-10</v>
+        <v>-2.464815306475104E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464682952738038E-10</v>
+        <v>-2.464889508071939E-10</v>
       </c>
       <c r="T3">
-        <v>4.137257760532235E-19</v>
+        <v>-8.680271594009346E-16</v>
       </c>
       <c r="U3">
-        <v>1.280765678953885E-09</v>
+        <v>1.280773056526706E-09</v>
       </c>
       <c r="V3">
-        <v>-1.280758909918218E-09</v>
+        <v>-1.280763763164549E-09</v>
       </c>
       <c r="W3">
-        <v>-3.474146294859792E-15</v>
+        <v>2.604941432085502E-15</v>
       </c>
       <c r="X3">
-        <v>-1.280760383125627E-09</v>
+        <v>-1.280767760698448E-09</v>
       </c>
       <c r="Y3">
-        <v>1.280759778367358E-09</v>
+        <v>1.28076984226053E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5481,40 +5481,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3666666746960905</v>
+        <v>0.3666666746962198</v>
       </c>
       <c r="AH3">
-        <v>0.9701088352034221</v>
+        <v>0.9701088352033029</v>
       </c>
       <c r="AI3">
-        <v>0.9701088350523328</v>
+        <v>0.970108835052404</v>
       </c>
       <c r="AJ3">
-        <v>0.366666674685604</v>
+        <v>0.3666666746857338</v>
       </c>
       <c r="AK3">
-        <v>0.9701088351965892</v>
+        <v>0.9701088351964703</v>
       </c>
       <c r="AL3">
-        <v>0.970108835057184</v>
+        <v>0.9701088350572548</v>
       </c>
       <c r="AM3">
-        <v>2.404316541434837E-08</v>
+        <v>2.405813048344731E-08</v>
       </c>
       <c r="AN3">
-        <v>-100.8933946502344</v>
+        <v>-100.8933946502281</v>
       </c>
       <c r="AO3">
-        <v>100.8933946519528</v>
+        <v>100.8933946519444</v>
       </c>
       <c r="AP3">
-        <v>2.21839221277475E-08</v>
+        <v>2.219884181899335E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499904</v>
       </c>
       <c r="AR3">
-        <v>100.8933946515823</v>
+        <v>100.8933946515739</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5558,40 +5558,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859208184451897E-10</v>
+        <v>9.859190815632571E-10</v>
       </c>
       <c r="O4">
-        <v>2.464813987178638E-10</v>
+        <v>2.464661709412557E-10</v>
       </c>
       <c r="P4">
-        <v>2.464719393922477E-10</v>
+        <v>2.46520538681989E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859216868581351E-10</v>
+        <v>-9.859242921819051E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464894702013287E-10</v>
+        <v>-2.464815306475104E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464674268326634E-10</v>
+        <v>-2.464889508071939E-10</v>
       </c>
       <c r="T4">
-        <v>4.13724251583203E-19</v>
+        <v>-8.680271594009346E-16</v>
       </c>
       <c r="U4">
-        <v>1.280754916966533E-09</v>
+        <v>1.280773056526706E-09</v>
       </c>
       <c r="V4">
-        <v>-1.280754397365683E-09</v>
+        <v>-1.280763763164549E-09</v>
       </c>
       <c r="W4">
-        <v>3.473382830302995E-15</v>
+        <v>2.604941432085502E-15</v>
       </c>
       <c r="X4">
-        <v>-1.280760383125627E-09</v>
+        <v>-1.280767760698448E-09</v>
       </c>
       <c r="Y4">
-        <v>1.280755265814823E-09</v>
+        <v>1.28076984226053E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5612,40 +5612,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3666666746960904</v>
+        <v>0.3666666746962198</v>
       </c>
       <c r="AH4">
-        <v>0.9701088352034221</v>
+        <v>0.9701088352033029</v>
       </c>
       <c r="AI4">
-        <v>0.9701088350523329</v>
+        <v>0.970108835052404</v>
       </c>
       <c r="AJ4">
-        <v>0.366666674685604</v>
+        <v>0.3666666746857338</v>
       </c>
       <c r="AK4">
-        <v>0.9701088351965892</v>
+        <v>0.9701088351964703</v>
       </c>
       <c r="AL4">
-        <v>0.970108835057184</v>
+        <v>0.9701088350572548</v>
       </c>
       <c r="AM4">
-        <v>2.404316153431854E-08</v>
+        <v>2.405813048344731E-08</v>
       </c>
       <c r="AN4">
-        <v>-100.8933946502344</v>
+        <v>-100.8933946502281</v>
       </c>
       <c r="AO4">
-        <v>100.8933946519528</v>
+        <v>100.8933946519444</v>
       </c>
       <c r="AP4">
-        <v>2.21839221277475E-08</v>
+        <v>2.219884181899335E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499904</v>
       </c>
       <c r="AR4">
-        <v>100.8933946515823</v>
+        <v>100.8933946515739</v>
       </c>
     </row>
   </sheetData>
@@ -5836,40 +5836,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.138983601855953E-09</v>
+        <v>-3.138980536652501E-09</v>
       </c>
       <c r="O2">
-        <v>-1.398955483859004E-09</v>
+        <v>-1.398939220954329E-09</v>
       </c>
       <c r="P2">
-        <v>-1.7054019225198E-10</v>
+        <v>-1.705818632610725E-10</v>
       </c>
       <c r="Q2">
-        <v>3.138990475336461E-09</v>
+        <v>3.138979790164877E-09</v>
       </c>
       <c r="R2">
-        <v>1.398953726607291E-09</v>
+        <v>1.39892338364971E-09</v>
       </c>
       <c r="S2">
-        <v>1.705377971870336E-10</v>
+        <v>1.705938387666815E-10</v>
       </c>
       <c r="T2">
-        <v>1.418410542707577E-09</v>
+        <v>1.418383803409403E-09</v>
       </c>
       <c r="U2">
-        <v>-2.221742064668878E-09</v>
+        <v>-2.221742872211998E-09</v>
       </c>
       <c r="V2">
-        <v>2.930933325822876E-09</v>
+        <v>2.930915569311864E-09</v>
       </c>
       <c r="W2">
-        <v>-1.418405890312036E-09</v>
+        <v>-1.41837992387911E-09</v>
       </c>
       <c r="X2">
-        <v>2.221743843782969E-09</v>
+        <v>2.221755347603437E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.930934046139837E-09</v>
+        <v>-2.930911967521833E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5890,40 +5890,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6194744497695825</v>
+        <v>0.6194744497696409</v>
       </c>
       <c r="AH2">
-        <v>0.9443347709443496</v>
+        <v>0.944334770944256</v>
       </c>
       <c r="AI2">
-        <v>1.05598589769414</v>
+        <v>1.05598589769419</v>
       </c>
       <c r="AJ2">
-        <v>0.6194744497792126</v>
+        <v>0.619474449779271</v>
       </c>
       <c r="AK2">
-        <v>0.944334770960538</v>
+        <v>0.9443347709604443</v>
       </c>
       <c r="AL2">
-        <v>1.055985897682488</v>
+        <v>1.055985897682538</v>
       </c>
       <c r="AM2">
-        <v>-10.9077501785047</v>
+        <v>-10.90775017849671</v>
       </c>
       <c r="AN2">
-        <v>-108.7881138042144</v>
+        <v>-108.7881138042116</v>
       </c>
       <c r="AO2">
-        <v>106.7392371168768</v>
+        <v>106.7392371168718</v>
       </c>
       <c r="AP2">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017559694</v>
       </c>
       <c r="AQ2">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043706</v>
       </c>
       <c r="AR2">
-        <v>106.7392371175029</v>
+        <v>106.739237117498</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5967,40 +5967,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046323400171952E-09</v>
+        <v>1.046326255319738E-09</v>
       </c>
       <c r="O3">
-        <v>4.663029666118201E-10</v>
+        <v>4.663065247715126E-10</v>
       </c>
       <c r="P3">
-        <v>5.684336912528559E-11</v>
+        <v>5.687596429011753E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046321179057355E-09</v>
+        <v>-1.046321239105222E-09</v>
       </c>
       <c r="R3">
-        <v>-4.663018424856683E-10</v>
+        <v>-4.66311098060604E-10</v>
       </c>
       <c r="S3">
-        <v>-5.683762453898937E-11</v>
+        <v>-5.686877900148992E-11</v>
       </c>
       <c r="T3">
-        <v>-4.727956803469071E-10</v>
+        <v>-4.727924950474525E-10</v>
       </c>
       <c r="U3">
-        <v>7.405859708133753E-10</v>
+        <v>7.40589485377044E-10</v>
       </c>
       <c r="V3">
-        <v>-9.769665981486579E-10</v>
+        <v>-9.769881357781652E-10</v>
       </c>
       <c r="W3">
-        <v>4.728072059807578E-10</v>
+        <v>4.727952639055327E-10</v>
       </c>
       <c r="X3">
-        <v>-7.405757218999171E-10</v>
+        <v>-7.405855670378869E-10</v>
       </c>
       <c r="Y3">
-        <v>9.769735493961402E-10</v>
+        <v>9.769902968354622E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6021,40 +6021,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6194744497824225</v>
+        <v>0.6194744497824808</v>
       </c>
       <c r="AH3">
-        <v>0.9443347709659341</v>
+        <v>0.9443347709658404</v>
       </c>
       <c r="AI3">
-        <v>1.055985897678604</v>
+        <v>1.055985897678654</v>
       </c>
       <c r="AJ3">
-        <v>0.6194744497792126</v>
+        <v>0.619474449779271</v>
       </c>
       <c r="AK3">
-        <v>0.944334770960538</v>
+        <v>0.9443347709604443</v>
       </c>
       <c r="AL3">
-        <v>1.055985897682488</v>
+        <v>1.055985897682538</v>
       </c>
       <c r="AM3">
-        <v>-10.90775017463835</v>
+        <v>-10.90775017463035</v>
       </c>
       <c r="AN3">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044236</v>
       </c>
       <c r="AO3">
-        <v>106.7392371177116</v>
+        <v>106.7392371177067</v>
       </c>
       <c r="AP3">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017559694</v>
       </c>
       <c r="AQ3">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043706</v>
       </c>
       <c r="AR3">
-        <v>106.7392371175029</v>
+        <v>106.739237117498</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6098,40 +6098,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046330273531876E-09</v>
+        <v>1.046326255319738E-09</v>
       </c>
       <c r="O4">
-        <v>4.663058480164823E-10</v>
+        <v>4.663065247715126E-10</v>
       </c>
       <c r="P4">
-        <v>5.686206180283466E-11</v>
+        <v>5.687596429011753E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046329162967879E-09</v>
+        <v>-1.046321239105222E-09</v>
       </c>
       <c r="R4">
-        <v>-4.663047238903305E-10</v>
+        <v>-4.66311098060604E-10</v>
       </c>
       <c r="S4">
-        <v>-5.685678529973027E-11</v>
+        <v>-5.686877900148992E-11</v>
       </c>
       <c r="T4">
-        <v>-4.727910280881822E-10</v>
+        <v>-4.727924950474525E-10</v>
       </c>
       <c r="U4">
-        <v>7.405944406431464E-10</v>
+        <v>7.40589485377044E-10</v>
       </c>
       <c r="V4">
-        <v>-9.769766466122202E-10</v>
+        <v>-9.769881357781652E-10</v>
       </c>
       <c r="W4">
-        <v>4.727967909127084E-10</v>
+        <v>4.727952639055327E-10</v>
       </c>
       <c r="X4">
-        <v>-7.405841917296879E-10</v>
+        <v>-7.405855670378869E-10</v>
       </c>
       <c r="Y4">
-        <v>9.769677865868159E-10</v>
+        <v>9.769902968354622E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6152,40 +6152,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6194744497824225</v>
+        <v>0.6194744497824808</v>
       </c>
       <c r="AH4">
-        <v>0.9443347709659341</v>
+        <v>0.9443347709658404</v>
       </c>
       <c r="AI4">
-        <v>1.055985897678604</v>
+        <v>1.055985897678654</v>
       </c>
       <c r="AJ4">
-        <v>0.6194744497792126</v>
+        <v>0.619474449779271</v>
       </c>
       <c r="AK4">
-        <v>0.944334770960538</v>
+        <v>0.9443347709604443</v>
       </c>
       <c r="AL4">
-        <v>1.055985897682488</v>
+        <v>1.055985897682538</v>
       </c>
       <c r="AM4">
-        <v>-10.90775017463835</v>
+        <v>-10.90775017463035</v>
       </c>
       <c r="AN4">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044236</v>
       </c>
       <c r="AO4">
-        <v>106.7392371177116</v>
+        <v>106.7392371177067</v>
       </c>
       <c r="AP4">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017559694</v>
       </c>
       <c r="AQ4">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043706</v>
       </c>
       <c r="AR4">
-        <v>106.7392371175029</v>
+        <v>106.739237117498</v>
       </c>
     </row>
   </sheetData>
@@ -6601,40 +6601,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.138983601855953E-09</v>
+        <v>-3.138980536652501E-09</v>
       </c>
       <c r="O2">
-        <v>-1.398955483859004E-09</v>
+        <v>-1.398939220954329E-09</v>
       </c>
       <c r="P2">
-        <v>-1.7054019225198E-10</v>
+        <v>-1.705818632610725E-10</v>
       </c>
       <c r="Q2">
-        <v>3.138990475336461E-09</v>
+        <v>3.138979790164877E-09</v>
       </c>
       <c r="R2">
-        <v>1.398953726607291E-09</v>
+        <v>1.39892338364971E-09</v>
       </c>
       <c r="S2">
-        <v>1.705377971870336E-10</v>
+        <v>1.705938387666815E-10</v>
       </c>
       <c r="T2">
-        <v>1.418410542707577E-09</v>
+        <v>1.418383803409403E-09</v>
       </c>
       <c r="U2">
-        <v>-2.221742064668878E-09</v>
+        <v>-2.221742872211998E-09</v>
       </c>
       <c r="V2">
-        <v>2.930933325822876E-09</v>
+        <v>2.930915569311864E-09</v>
       </c>
       <c r="W2">
-        <v>-1.418405890312036E-09</v>
+        <v>-1.41837992387911E-09</v>
       </c>
       <c r="X2">
-        <v>2.221743843782969E-09</v>
+        <v>2.221755347603437E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.930934046139837E-09</v>
+        <v>-2.930911967521833E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -6655,40 +6655,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6194744497695825</v>
+        <v>0.6194744497696409</v>
       </c>
       <c r="AH2">
-        <v>0.9443347709443496</v>
+        <v>0.944334770944256</v>
       </c>
       <c r="AI2">
-        <v>1.05598589769414</v>
+        <v>1.05598589769419</v>
       </c>
       <c r="AJ2">
-        <v>0.6194744497792126</v>
+        <v>0.619474449779271</v>
       </c>
       <c r="AK2">
-        <v>0.944334770960538</v>
+        <v>0.9443347709604443</v>
       </c>
       <c r="AL2">
-        <v>1.055985897682488</v>
+        <v>1.055985897682538</v>
       </c>
       <c r="AM2">
-        <v>-10.9077501785047</v>
+        <v>-10.90775017849671</v>
       </c>
       <c r="AN2">
-        <v>-108.7881138042144</v>
+        <v>-108.7881138042116</v>
       </c>
       <c r="AO2">
-        <v>106.7392371168768</v>
+        <v>106.7392371168718</v>
       </c>
       <c r="AP2">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017559694</v>
       </c>
       <c r="AQ2">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043706</v>
       </c>
       <c r="AR2">
-        <v>106.7392371175029</v>
+        <v>106.739237117498</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -6732,40 +6732,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046323400171952E-09</v>
+        <v>1.046326255319738E-09</v>
       </c>
       <c r="O3">
-        <v>4.663029666118201E-10</v>
+        <v>4.663065247715126E-10</v>
       </c>
       <c r="P3">
-        <v>5.684336912528559E-11</v>
+        <v>5.687596429011753E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046321179057355E-09</v>
+        <v>-1.046321239105222E-09</v>
       </c>
       <c r="R3">
-        <v>-4.663018424856683E-10</v>
+        <v>-4.66311098060604E-10</v>
       </c>
       <c r="S3">
-        <v>-5.683762453898937E-11</v>
+        <v>-5.686877900148992E-11</v>
       </c>
       <c r="T3">
-        <v>-4.727956803469071E-10</v>
+        <v>-4.727924950474525E-10</v>
       </c>
       <c r="U3">
-        <v>7.405859708133753E-10</v>
+        <v>7.40589485377044E-10</v>
       </c>
       <c r="V3">
-        <v>-9.769665981486579E-10</v>
+        <v>-9.769881357781652E-10</v>
       </c>
       <c r="W3">
-        <v>4.728072059807578E-10</v>
+        <v>4.727952639055327E-10</v>
       </c>
       <c r="X3">
-        <v>-7.405757218999171E-10</v>
+        <v>-7.405855670378869E-10</v>
       </c>
       <c r="Y3">
-        <v>9.769735493961402E-10</v>
+        <v>9.769902968354622E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6786,40 +6786,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6194744497824225</v>
+        <v>0.6194744497824808</v>
       </c>
       <c r="AH3">
-        <v>0.9443347709659341</v>
+        <v>0.9443347709658404</v>
       </c>
       <c r="AI3">
-        <v>1.055985897678604</v>
+        <v>1.055985897678654</v>
       </c>
       <c r="AJ3">
-        <v>0.6194744497792126</v>
+        <v>0.619474449779271</v>
       </c>
       <c r="AK3">
-        <v>0.944334770960538</v>
+        <v>0.9443347709604443</v>
       </c>
       <c r="AL3">
-        <v>1.055985897682488</v>
+        <v>1.055985897682538</v>
       </c>
       <c r="AM3">
-        <v>-10.90775017463835</v>
+        <v>-10.90775017463035</v>
       </c>
       <c r="AN3">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044236</v>
       </c>
       <c r="AO3">
-        <v>106.7392371177116</v>
+        <v>106.7392371177067</v>
       </c>
       <c r="AP3">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017559694</v>
       </c>
       <c r="AQ3">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043706</v>
       </c>
       <c r="AR3">
-        <v>106.7392371175029</v>
+        <v>106.739237117498</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6863,40 +6863,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046330273531876E-09</v>
+        <v>1.046326255319738E-09</v>
       </c>
       <c r="O4">
-        <v>4.663058480164823E-10</v>
+        <v>4.663065247715126E-10</v>
       </c>
       <c r="P4">
-        <v>5.686206180283466E-11</v>
+        <v>5.687596429011753E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046329162967879E-09</v>
+        <v>-1.046321239105222E-09</v>
       </c>
       <c r="R4">
-        <v>-4.663047238903305E-10</v>
+        <v>-4.66311098060604E-10</v>
       </c>
       <c r="S4">
-        <v>-5.685678529973027E-11</v>
+        <v>-5.686877900148992E-11</v>
       </c>
       <c r="T4">
-        <v>-4.727910280881822E-10</v>
+        <v>-4.727924950474525E-10</v>
       </c>
       <c r="U4">
-        <v>7.405944406431464E-10</v>
+        <v>7.40589485377044E-10</v>
       </c>
       <c r="V4">
-        <v>-9.769766466122202E-10</v>
+        <v>-9.769881357781652E-10</v>
       </c>
       <c r="W4">
-        <v>4.727967909127084E-10</v>
+        <v>4.727952639055327E-10</v>
       </c>
       <c r="X4">
-        <v>-7.405841917296879E-10</v>
+        <v>-7.405855670378869E-10</v>
       </c>
       <c r="Y4">
-        <v>9.769677865868159E-10</v>
+        <v>9.769902968354622E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6917,40 +6917,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6194744497824225</v>
+        <v>0.6194744497824808</v>
       </c>
       <c r="AH4">
-        <v>0.9443347709659341</v>
+        <v>0.9443347709658404</v>
       </c>
       <c r="AI4">
-        <v>1.055985897678604</v>
+        <v>1.055985897678654</v>
       </c>
       <c r="AJ4">
-        <v>0.6194744497792126</v>
+        <v>0.619474449779271</v>
       </c>
       <c r="AK4">
-        <v>0.944334770960538</v>
+        <v>0.9443347709604443</v>
       </c>
       <c r="AL4">
-        <v>1.055985897682488</v>
+        <v>1.055985897682538</v>
       </c>
       <c r="AM4">
-        <v>-10.90775017463835</v>
+        <v>-10.90775017463035</v>
       </c>
       <c r="AN4">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044236</v>
       </c>
       <c r="AO4">
-        <v>106.7392371177116</v>
+        <v>106.7392371177067</v>
       </c>
       <c r="AP4">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017559694</v>
       </c>
       <c r="AQ4">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043706</v>
       </c>
       <c r="AR4">
-        <v>106.7392371175029</v>
+        <v>106.739237117498</v>
       </c>
     </row>
   </sheetData>
@@ -7141,40 +7141,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444431225317784E-09</v>
+        <v>-2.444442672950655E-09</v>
       </c>
       <c r="O2">
-        <v>-6.11088796280935E-10</v>
+        <v>-6.110961339994708E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111103296660396E-10</v>
+        <v>-6.111098574897455E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444431620466432E-09</v>
+        <v>2.444447805050882E-09</v>
       </c>
       <c r="R2">
-        <v>6.110900580498777E-10</v>
+        <v>6.11096842364654E-10</v>
       </c>
       <c r="S2">
-        <v>6.111115914349807E-10</v>
+        <v>6.11107016938288E-10</v>
       </c>
       <c r="T2">
-        <v>-2.368829968033706E-15</v>
+        <v>-1.974082677451019E-15</v>
       </c>
       <c r="U2">
-        <v>-3.175432111141399E-09</v>
+        <v>-3.175437080384767E-09</v>
       </c>
       <c r="V2">
-        <v>3.175400314184181E-09</v>
+        <v>3.175408913570274E-09</v>
       </c>
       <c r="W2">
-        <v>7.900840763137196E-16</v>
+        <v>3.948050467220729E-15</v>
       </c>
       <c r="X2">
-        <v>3.175427614134528E-09</v>
+        <v>3.175424181364119E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.175395817058329E-09</v>
+        <v>-3.17540520593635E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7195,40 +7195,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3333333333308632</v>
+        <v>0.3333333333308505</v>
       </c>
       <c r="AH2">
-        <v>0.8819171037085276</v>
+        <v>0.881917103708708</v>
       </c>
       <c r="AI2">
-        <v>0.881917103661101</v>
+        <v>0.8819171036609251</v>
       </c>
       <c r="AJ2">
-        <v>0.3333333333857749</v>
+        <v>0.3333333333857629</v>
       </c>
       <c r="AK2">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037298289</v>
       </c>
       <c r="AL2">
-        <v>0.8819171036503575</v>
+        <v>0.8819171036501814</v>
       </c>
       <c r="AM2">
-        <v>8.301785759576047E-09</v>
+        <v>8.270660071705729E-09</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946487909</v>
+        <v>-100.8933946487895</v>
       </c>
       <c r="AO2">
-        <v>100.8933946493849</v>
+        <v>100.8933946493879</v>
       </c>
       <c r="AP2">
-        <v>1.387952772508363E-08</v>
+        <v>1.384840054241424E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946503433</v>
+        <v>-100.8933946503418</v>
       </c>
       <c r="AR2">
-        <v>100.8933946513357</v>
+        <v>100.8933946513387</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -7272,40 +7272,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148125139300421E-10</v>
+        <v>8.14823172071054E-10</v>
       </c>
       <c r="O3">
-        <v>2.037030510521331E-10</v>
+        <v>2.037032833432776E-10</v>
       </c>
       <c r="P3">
-        <v>2.037081751556076E-10</v>
+        <v>2.037024938513671E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148089611716193E-10</v>
+        <v>-8.148148823610562E-10</v>
       </c>
       <c r="R3">
-        <v>-2.03698159228621E-10</v>
+        <v>-2.037017855756526E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037081751444227E-10</v>
+        <v>-2.03705651807898E-10</v>
       </c>
       <c r="T3">
-        <v>7.897157533262182E-16</v>
+        <v>-3.945225796257593E-16</v>
       </c>
       <c r="U3">
-        <v>1.058483154951664E-09</v>
+        <v>1.058451203311009E-09</v>
       </c>
       <c r="V3">
-        <v>-1.058454516027346E-09</v>
+        <v>-1.058447100878258E-09</v>
       </c>
       <c r="W3">
-        <v>-2.368673168379515E-15</v>
+        <v>7.892949878382152E-16</v>
       </c>
       <c r="X3">
-        <v>-1.058479842116586E-09</v>
+        <v>-1.058460000064142E-09</v>
       </c>
       <c r="Y3">
-        <v>1.058454516033956E-09</v>
+        <v>1.058463510166457E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7326,40 +7326,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.333333333404079</v>
+        <v>0.3333333334040679</v>
       </c>
       <c r="AH3">
-        <v>0.8819171037366886</v>
+        <v>0.8819171037368688</v>
       </c>
       <c r="AI3">
-        <v>0.8819171036467766</v>
+        <v>0.8819171036466001</v>
       </c>
       <c r="AJ3">
-        <v>0.3333333333857749</v>
+        <v>0.3333333333857629</v>
       </c>
       <c r="AK3">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037298289</v>
       </c>
       <c r="AL3">
-        <v>0.8819171036503575</v>
+        <v>0.8819171036501814</v>
       </c>
       <c r="AM3">
-        <v>1.573883692711622E-08</v>
+        <v>1.570770802779359E-08</v>
       </c>
       <c r="AN3">
-        <v>-100.8933946508607</v>
+        <v>-100.8933946508592</v>
       </c>
       <c r="AO3">
-        <v>100.8933946519859</v>
+        <v>100.8933946519889</v>
       </c>
       <c r="AP3">
-        <v>1.387952772508363E-08</v>
+        <v>1.384840054241424E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946503433</v>
+        <v>-100.8933946503418</v>
       </c>
       <c r="AR3">
-        <v>100.8933946513357</v>
+        <v>100.8933946513387</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -7403,40 +7403,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148125139300421E-10</v>
+        <v>8.14823172071054E-10</v>
       </c>
       <c r="O4">
-        <v>2.036950012720912E-10</v>
+        <v>2.037032833432776E-10</v>
       </c>
       <c r="P4">
-        <v>2.037072308029256E-10</v>
+        <v>2.037024938513671E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148121191393341E-10</v>
+        <v>-8.148148823610562E-10</v>
       </c>
       <c r="R4">
-        <v>-2.036942117689772E-10</v>
+        <v>-2.037017855756526E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037051796315415E-10</v>
+        <v>-2.03705651807898E-10</v>
       </c>
       <c r="T4">
-        <v>7.897157533085495E-16</v>
+        <v>-3.945225796257593E-16</v>
       </c>
       <c r="U4">
-        <v>1.058463432841604E-09</v>
+        <v>1.058451203311009E-09</v>
       </c>
       <c r="V4">
-        <v>-1.058471714800864E-09</v>
+        <v>-1.058447100878258E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368673169144512E-15</v>
+        <v>7.892949878382152E-16</v>
       </c>
       <c r="X4">
-        <v>-1.058459330514597E-09</v>
+        <v>-1.058460000064142E-09</v>
       </c>
       <c r="Y4">
-        <v>1.058472109553439E-09</v>
+        <v>1.058463510166457E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7457,40 +7457,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.333333333404079</v>
+        <v>0.3333333334040679</v>
       </c>
       <c r="AH4">
-        <v>0.8819171037366886</v>
+        <v>0.8819171037368688</v>
       </c>
       <c r="AI4">
-        <v>0.8819171036467764</v>
+        <v>0.8819171036466001</v>
       </c>
       <c r="AJ4">
-        <v>0.3333333333857749</v>
+        <v>0.3333333333857629</v>
       </c>
       <c r="AK4">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037298289</v>
       </c>
       <c r="AL4">
-        <v>0.8819171036503575</v>
+        <v>0.8819171036501814</v>
       </c>
       <c r="AM4">
-        <v>1.573883568467597E-08</v>
+        <v>1.570770802779359E-08</v>
       </c>
       <c r="AN4">
-        <v>-100.8933946508607</v>
+        <v>-100.8933946508592</v>
       </c>
       <c r="AO4">
-        <v>100.8933946519859</v>
+        <v>100.8933946519889</v>
       </c>
       <c r="AP4">
-        <v>1.387952772508363E-08</v>
+        <v>1.384840054241424E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946503433</v>
+        <v>-100.8933946503418</v>
       </c>
       <c r="AR4">
-        <v>100.8933946513357</v>
+        <v>100.8933946513387</v>
       </c>
     </row>
   </sheetData>
@@ -7681,40 +7681,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444431225317784E-09</v>
+        <v>-2.444442672950655E-09</v>
       </c>
       <c r="O2">
-        <v>-6.11088796280935E-10</v>
+        <v>-6.110961339994708E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111103296660396E-10</v>
+        <v>-6.111098574897455E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444431620466432E-09</v>
+        <v>2.444447805050882E-09</v>
       </c>
       <c r="R2">
-        <v>6.110900580498777E-10</v>
+        <v>6.11096842364654E-10</v>
       </c>
       <c r="S2">
-        <v>6.111115914349807E-10</v>
+        <v>6.11107016938288E-10</v>
       </c>
       <c r="T2">
-        <v>-2.368829968033706E-15</v>
+        <v>-1.974082677451019E-15</v>
       </c>
       <c r="U2">
-        <v>-3.175432111141399E-09</v>
+        <v>-3.175437080384767E-09</v>
       </c>
       <c r="V2">
-        <v>3.175400314184181E-09</v>
+        <v>3.175408913570274E-09</v>
       </c>
       <c r="W2">
-        <v>7.900840763137196E-16</v>
+        <v>3.948050467220729E-15</v>
       </c>
       <c r="X2">
-        <v>3.175427614134528E-09</v>
+        <v>3.175424181364119E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.175395817058329E-09</v>
+        <v>-3.17540520593635E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7735,40 +7735,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3333333333308632</v>
+        <v>0.3333333333308505</v>
       </c>
       <c r="AH2">
-        <v>0.8819171037085276</v>
+        <v>0.881917103708708</v>
       </c>
       <c r="AI2">
-        <v>0.881917103661101</v>
+        <v>0.8819171036609251</v>
       </c>
       <c r="AJ2">
-        <v>0.3333333333857749</v>
+        <v>0.3333333333857629</v>
       </c>
       <c r="AK2">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037298289</v>
       </c>
       <c r="AL2">
-        <v>0.8819171036503575</v>
+        <v>0.8819171036501814</v>
       </c>
       <c r="AM2">
-        <v>8.301785759576047E-09</v>
+        <v>8.270660071705729E-09</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946487909</v>
+        <v>-100.8933946487895</v>
       </c>
       <c r="AO2">
-        <v>100.8933946493849</v>
+        <v>100.8933946493879</v>
       </c>
       <c r="AP2">
-        <v>1.387952772508363E-08</v>
+        <v>1.384840054241424E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946503433</v>
+        <v>-100.8933946503418</v>
       </c>
       <c r="AR2">
-        <v>100.8933946513357</v>
+        <v>100.8933946513387</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -7812,40 +7812,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148125139300421E-10</v>
+        <v>8.14823172071054E-10</v>
       </c>
       <c r="O3">
-        <v>2.037030510521331E-10</v>
+        <v>2.037032833432776E-10</v>
       </c>
       <c r="P3">
-        <v>2.037081751556076E-10</v>
+        <v>2.037024938513671E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148089611716193E-10</v>
+        <v>-8.148148823610562E-10</v>
       </c>
       <c r="R3">
-        <v>-2.03698159228621E-10</v>
+        <v>-2.037017855756526E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037081751444227E-10</v>
+        <v>-2.03705651807898E-10</v>
       </c>
       <c r="T3">
-        <v>7.897157533262182E-16</v>
+        <v>-3.945225796257593E-16</v>
       </c>
       <c r="U3">
-        <v>1.058483154951664E-09</v>
+        <v>1.058451203311009E-09</v>
       </c>
       <c r="V3">
-        <v>-1.058454516027346E-09</v>
+        <v>-1.058447100878258E-09</v>
       </c>
       <c r="W3">
-        <v>-2.368673168379515E-15</v>
+        <v>7.892949878382152E-16</v>
       </c>
       <c r="X3">
-        <v>-1.058479842116586E-09</v>
+        <v>-1.058460000064142E-09</v>
       </c>
       <c r="Y3">
-        <v>1.058454516033956E-09</v>
+        <v>1.058463510166457E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7866,40 +7866,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.333333333404079</v>
+        <v>0.3333333334040679</v>
       </c>
       <c r="AH3">
-        <v>0.8819171037366886</v>
+        <v>0.8819171037368688</v>
       </c>
       <c r="AI3">
-        <v>0.8819171036467766</v>
+        <v>0.8819171036466001</v>
       </c>
       <c r="AJ3">
-        <v>0.3333333333857749</v>
+        <v>0.3333333333857629</v>
       </c>
       <c r="AK3">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037298289</v>
       </c>
       <c r="AL3">
-        <v>0.8819171036503575</v>
+        <v>0.8819171036501814</v>
       </c>
       <c r="AM3">
-        <v>1.573883692711622E-08</v>
+        <v>1.570770802779359E-08</v>
       </c>
       <c r="AN3">
-        <v>-100.8933946508607</v>
+        <v>-100.8933946508592</v>
       </c>
       <c r="AO3">
-        <v>100.8933946519859</v>
+        <v>100.8933946519889</v>
       </c>
       <c r="AP3">
-        <v>1.387952772508363E-08</v>
+        <v>1.384840054241424E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946503433</v>
+        <v>-100.8933946503418</v>
       </c>
       <c r="AR3">
-        <v>100.8933946513357</v>
+        <v>100.8933946513387</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -7943,40 +7943,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148125139300421E-10</v>
+        <v>8.14823172071054E-10</v>
       </c>
       <c r="O4">
-        <v>2.036950012720912E-10</v>
+        <v>2.037032833432776E-10</v>
       </c>
       <c r="P4">
-        <v>2.037072308029256E-10</v>
+        <v>2.037024938513671E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148121191393341E-10</v>
+        <v>-8.148148823610562E-10</v>
       </c>
       <c r="R4">
-        <v>-2.036942117689772E-10</v>
+        <v>-2.037017855756526E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037051796315415E-10</v>
+        <v>-2.03705651807898E-10</v>
       </c>
       <c r="T4">
-        <v>7.897157533085495E-16</v>
+        <v>-3.945225796257593E-16</v>
       </c>
       <c r="U4">
-        <v>1.058463432841604E-09</v>
+        <v>1.058451203311009E-09</v>
       </c>
       <c r="V4">
-        <v>-1.058471714800864E-09</v>
+        <v>-1.058447100878258E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368673169144512E-15</v>
+        <v>7.892949878382152E-16</v>
       </c>
       <c r="X4">
-        <v>-1.058459330514597E-09</v>
+        <v>-1.058460000064142E-09</v>
       </c>
       <c r="Y4">
-        <v>1.058472109553439E-09</v>
+        <v>1.058463510166457E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7997,40 +7997,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.333333333404079</v>
+        <v>0.3333333334040679</v>
       </c>
       <c r="AH4">
-        <v>0.8819171037366886</v>
+        <v>0.8819171037368688</v>
       </c>
       <c r="AI4">
-        <v>0.8819171036467764</v>
+        <v>0.8819171036466001</v>
       </c>
       <c r="AJ4">
-        <v>0.3333333333857749</v>
+        <v>0.3333333333857629</v>
       </c>
       <c r="AK4">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037298289</v>
       </c>
       <c r="AL4">
-        <v>0.8819171036503575</v>
+        <v>0.8819171036501814</v>
       </c>
       <c r="AM4">
-        <v>1.573883568467597E-08</v>
+        <v>1.570770802779359E-08</v>
       </c>
       <c r="AN4">
-        <v>-100.8933946508607</v>
+        <v>-100.8933946508592</v>
       </c>
       <c r="AO4">
-        <v>100.8933946519859</v>
+        <v>100.8933946519889</v>
       </c>
       <c r="AP4">
-        <v>1.387952772508363E-08</v>
+        <v>1.384840054241424E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946503433</v>
+        <v>-100.8933946503418</v>
       </c>
       <c r="AR4">
-        <v>100.8933946513357</v>
+        <v>100.8933946513387</v>
       </c>
     </row>
   </sheetData>
@@ -8221,40 +8221,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624739819041317E-09</v>
+        <v>-2.624752432438775E-09</v>
       </c>
       <c r="O2">
-        <v>-1.140189397355519E-09</v>
+        <v>-1.140196431754906E-09</v>
       </c>
       <c r="P2">
-        <v>-1.721682363949232E-10</v>
+        <v>-1.72167956906173E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624738827563759E-09</v>
+        <v>2.624758108675079E-09</v>
       </c>
       <c r="R2">
-        <v>1.140191939492998E-09</v>
+        <v>1.140196766547785E-09</v>
       </c>
       <c r="S2">
-        <v>1.721648036084517E-10</v>
+        <v>1.72162352621168E-10</v>
       </c>
       <c r="T2">
-        <v>1.117779327206008E-09</v>
+        <v>1.117781733973333E-09</v>
       </c>
       <c r="U2">
-        <v>-1.947063117584023E-09</v>
+        <v>-1.947068298786156E-09</v>
       </c>
       <c r="V2">
-        <v>2.505935859623044E-09</v>
+        <v>2.505943004788206E-09</v>
       </c>
       <c r="W2">
-        <v>-1.117781098754809E-09</v>
+        <v>-1.117782816895818E-09</v>
       </c>
       <c r="X2">
-        <v>1.947067629334371E-09</v>
+        <v>1.947066052659979E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.505932147265233E-09</v>
+        <v>-2.505939923100281E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8275,40 +8275,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5421614591499193</v>
+        <v>0.5421614591499229</v>
       </c>
       <c r="AH2">
-        <v>0.8576025463155463</v>
+        <v>0.857602546315676</v>
       </c>
       <c r="AI2">
-        <v>0.9547184906659627</v>
+        <v>0.9547184906658439</v>
       </c>
       <c r="AJ2">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770514</v>
       </c>
       <c r="AK2">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463356777</v>
       </c>
       <c r="AL2">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906555796</v>
       </c>
       <c r="AM2">
-        <v>-10.80277169403311</v>
+        <v>-10.80277169404696</v>
       </c>
       <c r="AN2">
-        <v>-108.0887396155924</v>
+        <v>-108.088739615591</v>
       </c>
       <c r="AO2">
-        <v>106.1949204558219</v>
+        <v>106.1949204558253</v>
       </c>
       <c r="AP2">
-        <v>-10.80277169013766</v>
+        <v>-10.8027716901515</v>
       </c>
       <c r="AQ2">
-        <v>-108.0887396163351</v>
+        <v>-108.0887396163337</v>
       </c>
       <c r="AR2">
-        <v>106.1949204570493</v>
+        <v>106.1949204570527</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8352,40 +8352,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.749113090549533E-10</v>
+        <v>8.749195991235029E-10</v>
       </c>
       <c r="O3">
-        <v>3.800701862802415E-10</v>
+        <v>3.800641949163692E-10</v>
       </c>
       <c r="P3">
-        <v>5.738604858195407E-11</v>
+        <v>5.738450775334819E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.749125413934726E-10</v>
+        <v>-8.749192091072474E-10</v>
       </c>
       <c r="R3">
-        <v>-3.800733590300143E-10</v>
+        <v>-3.800651215093354E-10</v>
       </c>
       <c r="S3">
-        <v>-5.738839566523298E-11</v>
+        <v>-5.738794058589399E-11</v>
       </c>
       <c r="T3">
-        <v>-3.725988348153686E-10</v>
+        <v>-3.725964948562785E-10</v>
       </c>
       <c r="U3">
-        <v>6.490230088423601E-10</v>
+        <v>6.49004666034753E-10</v>
       </c>
       <c r="V3">
-        <v>-8.353003718685592E-10</v>
+        <v>-8.353031740368702E-10</v>
       </c>
       <c r="W3">
-        <v>3.725958018178885E-10</v>
+        <v>3.725951131917869E-10</v>
       </c>
       <c r="X3">
-        <v>-6.490294513805402E-10</v>
+        <v>-6.490107738318864E-10</v>
       </c>
       <c r="Y3">
-        <v>8.353043995340853E-10</v>
+        <v>8.353068863674538E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8406,40 +8406,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5421614591860903</v>
+        <v>0.5421614591860949</v>
       </c>
       <c r="AH3">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463423445</v>
       </c>
       <c r="AI3">
-        <v>0.9547184906522771</v>
+        <v>0.954718490652158</v>
       </c>
       <c r="AJ3">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770514</v>
       </c>
       <c r="AK3">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463356777</v>
       </c>
       <c r="AL3">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906555796</v>
       </c>
       <c r="AM3">
-        <v>-10.80277168883916</v>
+        <v>-10.80277168885298</v>
       </c>
       <c r="AN3">
-        <v>-108.0887396165827</v>
+        <v>-108.0887396165813</v>
       </c>
       <c r="AO3">
-        <v>106.1949204574585</v>
+        <v>106.1949204574618</v>
       </c>
       <c r="AP3">
-        <v>-10.80277169013766</v>
+        <v>-10.8027716901515</v>
       </c>
       <c r="AQ3">
-        <v>-108.0887396163351</v>
+        <v>-108.0887396163337</v>
       </c>
       <c r="AR3">
-        <v>106.1949204570493</v>
+        <v>106.1949204570527</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -8483,40 +8483,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.74922843833133E-10</v>
+        <v>8.749195991235029E-10</v>
       </c>
       <c r="O4">
-        <v>3.800634284037151E-10</v>
+        <v>3.800641949163692E-10</v>
       </c>
       <c r="P4">
-        <v>5.739326543957206E-11</v>
+        <v>5.738450775334819E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749235948183155E-10</v>
+        <v>-8.749192091072474E-10</v>
       </c>
       <c r="R4">
-        <v>-3.800605127590553E-10</v>
+        <v>-3.800651215093354E-10</v>
       </c>
       <c r="S4">
-        <v>-5.739669827211725E-11</v>
+        <v>-5.738794058589399E-11</v>
       </c>
       <c r="T4">
-        <v>-3.725931921900872E-10</v>
+        <v>-3.725964948562785E-10</v>
       </c>
       <c r="U4">
-        <v>6.490252161869598E-10</v>
+        <v>6.49004666034753E-10</v>
       </c>
       <c r="V4">
-        <v>-8.353171131869368E-10</v>
+        <v>-8.353031740368702E-10</v>
       </c>
       <c r="W4">
-        <v>3.725926818721497E-10</v>
+        <v>3.725951131917869E-10</v>
       </c>
       <c r="X4">
-        <v>-6.490293737561246E-10</v>
+        <v>-6.490107738318864E-10</v>
       </c>
       <c r="Y4">
-        <v>8.353208255175203E-10</v>
+        <v>8.353068863674538E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8537,40 +8537,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5421614591860905</v>
+        <v>0.5421614591860949</v>
       </c>
       <c r="AH4">
-        <v>0.857602546342215</v>
+        <v>0.8576025463423445</v>
       </c>
       <c r="AI4">
-        <v>0.954718490652277</v>
+        <v>0.954718490652158</v>
       </c>
       <c r="AJ4">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770514</v>
       </c>
       <c r="AK4">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463356777</v>
       </c>
       <c r="AL4">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906555796</v>
       </c>
       <c r="AM4">
-        <v>-10.80277168883915</v>
+        <v>-10.80277168885298</v>
       </c>
       <c r="AN4">
-        <v>-108.0887396165827</v>
+        <v>-108.0887396165813</v>
       </c>
       <c r="AO4">
-        <v>106.1949204574585</v>
+        <v>106.1949204574618</v>
       </c>
       <c r="AP4">
-        <v>-10.80277169013766</v>
+        <v>-10.8027716901515</v>
       </c>
       <c r="AQ4">
-        <v>-108.0887396163351</v>
+        <v>-108.0887396163337</v>
       </c>
       <c r="AR4">
-        <v>106.1949204570493</v>
+        <v>106.1949204570527</v>
       </c>
     </row>
   </sheetData>
@@ -8761,40 +8761,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624739819041317E-09</v>
+        <v>-2.624752432438775E-09</v>
       </c>
       <c r="O2">
-        <v>-1.140189397355519E-09</v>
+        <v>-1.140196431754906E-09</v>
       </c>
       <c r="P2">
-        <v>-1.721682363949232E-10</v>
+        <v>-1.72167956906173E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624738827563759E-09</v>
+        <v>2.624758108675079E-09</v>
       </c>
       <c r="R2">
-        <v>1.140191939492998E-09</v>
+        <v>1.140196766547785E-09</v>
       </c>
       <c r="S2">
-        <v>1.721648036084517E-10</v>
+        <v>1.72162352621168E-10</v>
       </c>
       <c r="T2">
-        <v>1.117779327206008E-09</v>
+        <v>1.117781733973333E-09</v>
       </c>
       <c r="U2">
-        <v>-1.947063117584023E-09</v>
+        <v>-1.947068298786156E-09</v>
       </c>
       <c r="V2">
-        <v>2.505935859623044E-09</v>
+        <v>2.505943004788206E-09</v>
       </c>
       <c r="W2">
-        <v>-1.117781098754809E-09</v>
+        <v>-1.117782816895818E-09</v>
       </c>
       <c r="X2">
-        <v>1.947067629334371E-09</v>
+        <v>1.947066052659979E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.505932147265233E-09</v>
+        <v>-2.505939923100281E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8815,40 +8815,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5421614591499193</v>
+        <v>0.5421614591499229</v>
       </c>
       <c r="AH2">
-        <v>0.8576025463155463</v>
+        <v>0.857602546315676</v>
       </c>
       <c r="AI2">
-        <v>0.9547184906659627</v>
+        <v>0.9547184906658439</v>
       </c>
       <c r="AJ2">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770514</v>
       </c>
       <c r="AK2">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463356777</v>
       </c>
       <c r="AL2">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906555796</v>
       </c>
       <c r="AM2">
-        <v>-10.80277169403311</v>
+        <v>-10.80277169404696</v>
       </c>
       <c r="AN2">
-        <v>-108.0887396155924</v>
+        <v>-108.088739615591</v>
       </c>
       <c r="AO2">
-        <v>106.1949204558219</v>
+        <v>106.1949204558253</v>
       </c>
       <c r="AP2">
-        <v>-10.80277169013766</v>
+        <v>-10.8027716901515</v>
       </c>
       <c r="AQ2">
-        <v>-108.0887396163351</v>
+        <v>-108.0887396163337</v>
       </c>
       <c r="AR2">
-        <v>106.1949204570493</v>
+        <v>106.1949204570527</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8892,40 +8892,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.749113090549533E-10</v>
+        <v>8.749195991235029E-10</v>
       </c>
       <c r="O3">
-        <v>3.800701862802415E-10</v>
+        <v>3.800641949163692E-10</v>
       </c>
       <c r="P3">
-        <v>5.738604858195407E-11</v>
+        <v>5.738450775334819E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.749125413934726E-10</v>
+        <v>-8.749192091072474E-10</v>
       </c>
       <c r="R3">
-        <v>-3.800733590300143E-10</v>
+        <v>-3.800651215093354E-10</v>
       </c>
       <c r="S3">
-        <v>-5.738839566523298E-11</v>
+        <v>-5.738794058589399E-11</v>
       </c>
       <c r="T3">
-        <v>-3.725988348153686E-10</v>
+        <v>-3.725964948562785E-10</v>
       </c>
       <c r="U3">
-        <v>6.490230088423601E-10</v>
+        <v>6.49004666034753E-10</v>
       </c>
       <c r="V3">
-        <v>-8.353003718685592E-10</v>
+        <v>-8.353031740368702E-10</v>
       </c>
       <c r="W3">
-        <v>3.725958018178885E-10</v>
+        <v>3.725951131917869E-10</v>
       </c>
       <c r="X3">
-        <v>-6.490294513805402E-10</v>
+        <v>-6.490107738318864E-10</v>
       </c>
       <c r="Y3">
-        <v>8.353043995340853E-10</v>
+        <v>8.353068863674538E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8946,40 +8946,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5421614591860903</v>
+        <v>0.5421614591860949</v>
       </c>
       <c r="AH3">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463423445</v>
       </c>
       <c r="AI3">
-        <v>0.9547184906522771</v>
+        <v>0.954718490652158</v>
       </c>
       <c r="AJ3">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770514</v>
       </c>
       <c r="AK3">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463356777</v>
       </c>
       <c r="AL3">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906555796</v>
       </c>
       <c r="AM3">
-        <v>-10.80277168883916</v>
+        <v>-10.80277168885298</v>
       </c>
       <c r="AN3">
-        <v>-108.0887396165827</v>
+        <v>-108.0887396165813</v>
       </c>
       <c r="AO3">
-        <v>106.1949204574585</v>
+        <v>106.1949204574618</v>
       </c>
       <c r="AP3">
-        <v>-10.80277169013766</v>
+        <v>-10.8027716901515</v>
       </c>
       <c r="AQ3">
-        <v>-108.0887396163351</v>
+        <v>-108.0887396163337</v>
       </c>
       <c r="AR3">
-        <v>106.1949204570493</v>
+        <v>106.1949204570527</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9023,40 +9023,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.74922843833133E-10</v>
+        <v>8.749195991235029E-10</v>
       </c>
       <c r="O4">
-        <v>3.800634284037151E-10</v>
+        <v>3.800641949163692E-10</v>
       </c>
       <c r="P4">
-        <v>5.739326543957206E-11</v>
+        <v>5.738450775334819E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749235948183155E-10</v>
+        <v>-8.749192091072474E-10</v>
       </c>
       <c r="R4">
-        <v>-3.800605127590553E-10</v>
+        <v>-3.800651215093354E-10</v>
       </c>
       <c r="S4">
-        <v>-5.739669827211725E-11</v>
+        <v>-5.738794058589399E-11</v>
       </c>
       <c r="T4">
-        <v>-3.725931921900872E-10</v>
+        <v>-3.725964948562785E-10</v>
       </c>
       <c r="U4">
-        <v>6.490252161869598E-10</v>
+        <v>6.49004666034753E-10</v>
       </c>
       <c r="V4">
-        <v>-8.353171131869368E-10</v>
+        <v>-8.353031740368702E-10</v>
       </c>
       <c r="W4">
-        <v>3.725926818721497E-10</v>
+        <v>3.725951131917869E-10</v>
       </c>
       <c r="X4">
-        <v>-6.490293737561246E-10</v>
+        <v>-6.490107738318864E-10</v>
       </c>
       <c r="Y4">
-        <v>8.353208255175203E-10</v>
+        <v>8.353068863674538E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9077,40 +9077,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5421614591860905</v>
+        <v>0.5421614591860949</v>
       </c>
       <c r="AH4">
-        <v>0.857602546342215</v>
+        <v>0.8576025463423445</v>
       </c>
       <c r="AI4">
-        <v>0.954718490652277</v>
+        <v>0.954718490652158</v>
       </c>
       <c r="AJ4">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770514</v>
       </c>
       <c r="AK4">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463356777</v>
       </c>
       <c r="AL4">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906555796</v>
       </c>
       <c r="AM4">
-        <v>-10.80277168883915</v>
+        <v>-10.80277168885298</v>
       </c>
       <c r="AN4">
-        <v>-108.0887396165827</v>
+        <v>-108.0887396165813</v>
       </c>
       <c r="AO4">
-        <v>106.1949204574585</v>
+        <v>106.1949204574618</v>
       </c>
       <c r="AP4">
-        <v>-10.80277169013766</v>
+        <v>-10.8027716901515</v>
       </c>
       <c r="AQ4">
-        <v>-108.0887396163351</v>
+        <v>-108.0887396163337</v>
       </c>
       <c r="AR4">
-        <v>106.1949204570493</v>
+        <v>106.1949204570527</v>
       </c>
     </row>
   </sheetData>
@@ -9301,40 +9301,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957792415758428E-09</v>
+        <v>-2.957785468230028E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394463667101122E-10</v>
+        <v>-7.394481035899258E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394498411229207E-10</v>
+        <v>-7.394463673601119E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957785468292752E-09</v>
+        <v>2.957764625706104E-09</v>
       </c>
       <c r="R2">
-        <v>7.394411565073844E-10</v>
+        <v>7.394724203859502E-10</v>
       </c>
       <c r="S2">
-        <v>7.394463678024659E-10</v>
+        <v>7.39456789097914E-10</v>
       </c>
       <c r="T2">
-        <v>3.126380443172149E-14</v>
+        <v>3.473687130751392E-15</v>
       </c>
       <c r="U2">
-        <v>3.842268451026756E-09</v>
+        <v>3.842266714143023E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842254560405036E-09</v>
+        <v>-3.842261507931894E-09</v>
       </c>
       <c r="W2">
-        <v>-2.77899678854319E-14</v>
+        <v>-3.473615146686502E-15</v>
       </c>
       <c r="X2">
-        <v>-3.842263239876021E-09</v>
+        <v>-3.84226497675685E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842254560908927E-09</v>
+        <v>3.842261508435792E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9355,40 +9355,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947052</v>
+        <v>0.7333333491948842</v>
       </c>
       <c r="AH2">
-        <v>0.3666666743874873</v>
+        <v>0.3666666743873099</v>
       </c>
       <c r="AI2">
-        <v>0.366666674807224</v>
+        <v>0.3666666748070463</v>
       </c>
       <c r="AJ2">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492106139</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743488063</v>
       </c>
       <c r="AL2">
-        <v>0.366666674861458</v>
+        <v>0.366666674861281</v>
       </c>
       <c r="AM2">
-        <v>1.484175908440117E-09</v>
+        <v>1.499916312477051E-09</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999988592</v>
+        <v>-179.9999999988906</v>
       </c>
       <c r="AO2">
-        <v>-179.9999999981703</v>
+        <v>-179.9999999982018</v>
       </c>
       <c r="AP2">
-        <v>2.878629163342476E-09</v>
+        <v>2.894354059733417E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999910787</v>
+        <v>-179.9999999911101</v>
       </c>
       <c r="AR2">
-        <v>179.9999999968235</v>
+        <v>179.999999996792</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9432,40 +9432,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.858995413999561E-10</v>
+        <v>9.859099626938801E-10</v>
       </c>
       <c r="O3">
-        <v>2.464774907480086E-10</v>
+        <v>2.46496596452255E-10</v>
       </c>
       <c r="P3">
-        <v>2.46494859786901E-10</v>
+        <v>2.464983335520527E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.85913436451153E-10</v>
+        <v>-9.859238577450764E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464757538163842E-10</v>
+        <v>-2.464792275801196E-10</v>
       </c>
       <c r="S3">
-        <v>-2.465052810312465E-10</v>
+        <v>-2.464879122090142E-10</v>
       </c>
       <c r="T3">
-        <v>-1.04212361522868E-14</v>
+        <v>-2.431629412529511E-14</v>
       </c>
       <c r="U3">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280737044412744E-09</v>
       </c>
       <c r="V3">
-        <v>1.28075615204505E-09</v>
+        <v>1.280763099573424E-09</v>
       </c>
       <c r="W3">
-        <v>2.084253783305802E-14</v>
+        <v>1.736877300080334E-14</v>
       </c>
       <c r="X3">
-        <v>1.280761360821125E-09</v>
+        <v>1.280745728880129E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280763099518187E-09</v>
+        <v>-1.280763099517434E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9486,40 +9486,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492158562</v>
       </c>
       <c r="AH3">
-        <v>0.3666666743361487</v>
+        <v>0.3666666743359724</v>
       </c>
       <c r="AI3">
-        <v>0.3666666748795367</v>
+        <v>0.3666666748793599</v>
       </c>
       <c r="AJ3">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492106139</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743488063</v>
       </c>
       <c r="AL3">
-        <v>0.366666674861458</v>
+        <v>0.366666674861281</v>
       </c>
       <c r="AM3">
-        <v>3.343440698985656E-09</v>
+        <v>3.359194300875017E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999884852</v>
+        <v>-179.9999999885167</v>
       </c>
       <c r="AO3">
-        <v>179.9999999951597</v>
+        <v>179.9999999951281</v>
       </c>
       <c r="AP3">
-        <v>2.878629163342476E-09</v>
+        <v>2.894354059733417E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999910787</v>
+        <v>-179.9999999911101</v>
       </c>
       <c r="AR3">
-        <v>179.9999999968235</v>
+        <v>179.999999996792</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9563,40 +9563,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.858891201062718E-10</v>
+        <v>9.859099626938801E-10</v>
       </c>
       <c r="O4">
-        <v>2.46477490748009E-10</v>
+        <v>2.46496596452255E-10</v>
       </c>
       <c r="P4">
-        <v>2.464740171995197E-10</v>
+        <v>2.464983335520527E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.858995413929077E-10</v>
+        <v>-9.859238577450764E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464896488746192E-10</v>
+        <v>-2.464792275801196E-10</v>
       </c>
       <c r="S4">
-        <v>-2.46484438443865E-10</v>
+        <v>-2.464879122090142E-10</v>
       </c>
       <c r="T4">
-        <v>3.473822091601737E-15</v>
+        <v>-2.431629412529511E-14</v>
       </c>
       <c r="U4">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280737044412744E-09</v>
       </c>
       <c r="V4">
-        <v>1.280756152045051E-09</v>
+        <v>1.280763099573424E-09</v>
       </c>
       <c r="W4">
-        <v>6.94747958916681E-15</v>
+        <v>1.736877300080334E-14</v>
       </c>
       <c r="X4">
-        <v>1.280761360821123E-09</v>
+        <v>1.280745728880129E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.280763099518188E-09</v>
+        <v>-1.280763099517434E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9617,40 +9617,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492158562</v>
       </c>
       <c r="AH4">
-        <v>0.3666666743361489</v>
+        <v>0.3666666743359724</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795366</v>
+        <v>0.3666666748793599</v>
       </c>
       <c r="AJ4">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492106139</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743488063</v>
       </c>
       <c r="AL4">
-        <v>0.366666674861458</v>
+        <v>0.366666674861281</v>
       </c>
       <c r="AM4">
-        <v>3.343429540757864E-09</v>
+        <v>3.359194300875017E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999884852</v>
+        <v>-179.9999999885167</v>
       </c>
       <c r="AO4">
-        <v>179.9999999951597</v>
+        <v>179.9999999951281</v>
       </c>
       <c r="AP4">
-        <v>2.878629163342476E-09</v>
+        <v>2.894354059733417E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999910787</v>
+        <v>-179.9999999911101</v>
       </c>
       <c r="AR4">
-        <v>179.9999999968235</v>
+        <v>179.999999996792</v>
       </c>
     </row>
   </sheetData>
@@ -9841,40 +9841,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957792415758428E-09</v>
+        <v>-2.957785468230028E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394463667101122E-10</v>
+        <v>-7.394481035899258E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394498411229207E-10</v>
+        <v>-7.394463673601119E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957785468292752E-09</v>
+        <v>2.957764625706104E-09</v>
       </c>
       <c r="R2">
-        <v>7.394411565073844E-10</v>
+        <v>7.394724203859502E-10</v>
       </c>
       <c r="S2">
-        <v>7.394463678024659E-10</v>
+        <v>7.39456789097914E-10</v>
       </c>
       <c r="T2">
-        <v>3.126380443172149E-14</v>
+        <v>3.473687130751392E-15</v>
       </c>
       <c r="U2">
-        <v>3.842268451026756E-09</v>
+        <v>3.842266714143023E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842254560405036E-09</v>
+        <v>-3.842261507931894E-09</v>
       </c>
       <c r="W2">
-        <v>-2.77899678854319E-14</v>
+        <v>-3.473615146686502E-15</v>
       </c>
       <c r="X2">
-        <v>-3.842263239876021E-09</v>
+        <v>-3.84226497675685E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842254560908927E-09</v>
+        <v>3.842261508435792E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9895,40 +9895,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947052</v>
+        <v>0.7333333491948842</v>
       </c>
       <c r="AH2">
-        <v>0.3666666743874873</v>
+        <v>0.3666666743873099</v>
       </c>
       <c r="AI2">
-        <v>0.366666674807224</v>
+        <v>0.3666666748070463</v>
       </c>
       <c r="AJ2">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492106139</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743488063</v>
       </c>
       <c r="AL2">
-        <v>0.366666674861458</v>
+        <v>0.366666674861281</v>
       </c>
       <c r="AM2">
-        <v>1.484175908440117E-09</v>
+        <v>1.499916312477051E-09</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999988592</v>
+        <v>-179.9999999988906</v>
       </c>
       <c r="AO2">
-        <v>-179.9999999981703</v>
+        <v>-179.9999999982018</v>
       </c>
       <c r="AP2">
-        <v>2.878629163342476E-09</v>
+        <v>2.894354059733417E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999910787</v>
+        <v>-179.9999999911101</v>
       </c>
       <c r="AR2">
-        <v>179.9999999968235</v>
+        <v>179.999999996792</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9972,40 +9972,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.858995413999561E-10</v>
+        <v>9.859099626938801E-10</v>
       </c>
       <c r="O3">
-        <v>2.464774907480086E-10</v>
+        <v>2.46496596452255E-10</v>
       </c>
       <c r="P3">
-        <v>2.46494859786901E-10</v>
+        <v>2.464983335520527E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.85913436451153E-10</v>
+        <v>-9.859238577450764E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464757538163842E-10</v>
+        <v>-2.464792275801196E-10</v>
       </c>
       <c r="S3">
-        <v>-2.465052810312465E-10</v>
+        <v>-2.464879122090142E-10</v>
       </c>
       <c r="T3">
-        <v>-1.04212361522868E-14</v>
+        <v>-2.431629412529511E-14</v>
       </c>
       <c r="U3">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280737044412744E-09</v>
       </c>
       <c r="V3">
-        <v>1.28075615204505E-09</v>
+        <v>1.280763099573424E-09</v>
       </c>
       <c r="W3">
-        <v>2.084253783305802E-14</v>
+        <v>1.736877300080334E-14</v>
       </c>
       <c r="X3">
-        <v>1.280761360821125E-09</v>
+        <v>1.280745728880129E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280763099518187E-09</v>
+        <v>-1.280763099517434E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10026,40 +10026,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492158562</v>
       </c>
       <c r="AH3">
-        <v>0.3666666743361487</v>
+        <v>0.3666666743359724</v>
       </c>
       <c r="AI3">
-        <v>0.3666666748795367</v>
+        <v>0.3666666748793599</v>
       </c>
       <c r="AJ3">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492106139</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743488063</v>
       </c>
       <c r="AL3">
-        <v>0.366666674861458</v>
+        <v>0.366666674861281</v>
       </c>
       <c r="AM3">
-        <v>3.343440698985656E-09</v>
+        <v>3.359194300875017E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999884852</v>
+        <v>-179.9999999885167</v>
       </c>
       <c r="AO3">
-        <v>179.9999999951597</v>
+        <v>179.9999999951281</v>
       </c>
       <c r="AP3">
-        <v>2.878629163342476E-09</v>
+        <v>2.894354059733417E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999910787</v>
+        <v>-179.9999999911101</v>
       </c>
       <c r="AR3">
-        <v>179.9999999968235</v>
+        <v>179.999999996792</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10103,40 +10103,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.858891201062718E-10</v>
+        <v>9.859099626938801E-10</v>
       </c>
       <c r="O4">
-        <v>2.46477490748009E-10</v>
+        <v>2.46496596452255E-10</v>
       </c>
       <c r="P4">
-        <v>2.464740171995197E-10</v>
+        <v>2.464983335520527E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.858995413929077E-10</v>
+        <v>-9.859238577450764E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464896488746192E-10</v>
+        <v>-2.464792275801196E-10</v>
       </c>
       <c r="S4">
-        <v>-2.46484438443865E-10</v>
+        <v>-2.464879122090142E-10</v>
       </c>
       <c r="T4">
-        <v>3.473822091601737E-15</v>
+        <v>-2.431629412529511E-14</v>
       </c>
       <c r="U4">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280737044412744E-09</v>
       </c>
       <c r="V4">
-        <v>1.280756152045051E-09</v>
+        <v>1.280763099573424E-09</v>
       </c>
       <c r="W4">
-        <v>6.94747958916681E-15</v>
+        <v>1.736877300080334E-14</v>
       </c>
       <c r="X4">
-        <v>1.280761360821123E-09</v>
+        <v>1.280745728880129E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.280763099518188E-09</v>
+        <v>-1.280763099517434E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10157,40 +10157,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492158562</v>
       </c>
       <c r="AH4">
-        <v>0.3666666743361489</v>
+        <v>0.3666666743359724</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795366</v>
+        <v>0.3666666748793599</v>
       </c>
       <c r="AJ4">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492106139</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743488063</v>
       </c>
       <c r="AL4">
-        <v>0.366666674861458</v>
+        <v>0.366666674861281</v>
       </c>
       <c r="AM4">
-        <v>3.343429540757864E-09</v>
+        <v>3.359194300875017E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999884852</v>
+        <v>-179.9999999885167</v>
       </c>
       <c r="AO4">
-        <v>179.9999999951597</v>
+        <v>179.9999999951281</v>
       </c>
       <c r="AP4">
-        <v>2.878629163342476E-09</v>
+        <v>2.894354059733417E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999910787</v>
+        <v>-179.9999999911101</v>
       </c>
       <c r="AR4">
-        <v>179.9999999968235</v>
+        <v>179.999999996792</v>
       </c>
     </row>
   </sheetData>
@@ -10381,40 +10381,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.272197829251245E-09</v>
+        <v>-2.27219398131426E-09</v>
       </c>
       <c r="O2">
-        <v>-1.904150528396024E-09</v>
+        <v>-1.904164419540877E-09</v>
       </c>
       <c r="P2">
-        <v>-3.132500529693681E-09</v>
+        <v>-3.132509629403166E-09</v>
       </c>
       <c r="Q2">
-        <v>2.272190292505188E-09</v>
+        <v>2.272182120904799E-09</v>
       </c>
       <c r="R2">
-        <v>1.904168342586301E-09</v>
+        <v>1.904164419751895E-09</v>
       </c>
       <c r="S2">
-        <v>3.132506384476927E-09</v>
+        <v>3.132514836370599E-09</v>
       </c>
       <c r="T2">
-        <v>7.092195805501685E-10</v>
+        <v>7.091867958873243E-10</v>
       </c>
       <c r="U2">
-        <v>4.349317583472807E-09</v>
+        <v>4.349286915460723E-09</v>
       </c>
       <c r="V2">
-        <v>-8.03340343370664E-10</v>
+        <v>-8.033556336731951E-10</v>
       </c>
       <c r="W2">
-        <v>-7.092109331891603E-10</v>
+        <v>-7.091819169144182E-10</v>
       </c>
       <c r="X2">
-        <v>-4.349312239813861E-09</v>
+        <v>-4.3492869152213E-09</v>
       </c>
       <c r="Y2">
-        <v>8.033396957942729E-10</v>
+        <v>8.033491315245803E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10435,40 +10435,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8561498316503073</v>
+        <v>0.8561498316504214</v>
       </c>
       <c r="AH2">
-        <v>0.645459785903853</v>
+        <v>0.6454597859036704</v>
       </c>
       <c r="AI2">
-        <v>0.4396365303143204</v>
+        <v>0.4396365303143684</v>
       </c>
       <c r="AJ2">
-        <v>0.8561498316569923</v>
+        <v>0.8561498316571062</v>
       </c>
       <c r="AK2">
-        <v>0.6454597858855412</v>
+        <v>0.6454597858853591</v>
       </c>
       <c r="AL2">
-        <v>0.4396365303501945</v>
+        <v>0.439636530350243</v>
       </c>
       <c r="AM2">
-        <v>-3.925473815880364</v>
+        <v>-3.925473815869046</v>
       </c>
       <c r="AN2">
-        <v>-153.8407182488145</v>
+        <v>-153.8407182488224</v>
       </c>
       <c r="AO2">
-        <v>128.6858355510056</v>
+        <v>128.6858355509798</v>
       </c>
       <c r="AP2">
-        <v>-3.925473814878226</v>
+        <v>-3.925473814866919</v>
       </c>
       <c r="AQ2">
-        <v>-153.8407182453229</v>
+        <v>-153.8407182453308</v>
       </c>
       <c r="AR2">
-        <v>128.6858355541858</v>
+        <v>128.6858355541601</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -10512,40 +10512,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.573796546099041E-10</v>
+        <v>7.573781868724753E-10</v>
       </c>
       <c r="O3">
-        <v>6.347096537758672E-10</v>
+        <v>6.347123254852467E-10</v>
       </c>
       <c r="P3">
-        <v>1.044175521252364E-09</v>
+        <v>1.044180721951543E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.573877466580588E-10</v>
+        <v>-7.57394093334484E-10</v>
       </c>
       <c r="R3">
-        <v>-6.347082089572066E-10</v>
+        <v>-6.347123254618007E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044178772422939E-09</v>
+        <v>-1.04417811854989E-09</v>
       </c>
       <c r="T3">
-        <v>-2.364160205944926E-10</v>
+        <v>-2.364077897240457E-10</v>
       </c>
       <c r="U3">
-        <v>-1.449757891255728E-09</v>
+        <v>-1.449766798245036E-09</v>
       </c>
       <c r="V3">
-        <v>2.677692772498926E-10</v>
+        <v>2.67776109602875E-10</v>
       </c>
       <c r="W3">
-        <v>2.364165758735931E-10</v>
+        <v>2.364129463041981E-10</v>
       </c>
       <c r="X3">
-        <v>1.449768820211001E-09</v>
+        <v>1.449766798271638E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.677718806014938E-10</v>
+        <v>-2.677793607702928E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10566,40 +10566,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8561498316592202</v>
+        <v>0.8561498316593337</v>
       </c>
       <c r="AH3">
-        <v>0.6454597858794374</v>
+        <v>0.6454597858792556</v>
       </c>
       <c r="AI3">
-        <v>0.4396365303621528</v>
+        <v>0.4396365303622016</v>
       </c>
       <c r="AJ3">
-        <v>0.8561498316569923</v>
+        <v>0.8561498316571062</v>
       </c>
       <c r="AK3">
-        <v>0.6454597858855412</v>
+        <v>0.6454597858853591</v>
       </c>
       <c r="AL3">
-        <v>0.4396365303501945</v>
+        <v>0.439636530350243</v>
       </c>
       <c r="AM3">
-        <v>-3.925473814544177</v>
+        <v>-3.92547381453287</v>
       </c>
       <c r="AN3">
-        <v>-153.8407182441591</v>
+        <v>-153.840718244167</v>
       </c>
       <c r="AO3">
-        <v>128.685835555246</v>
+        <v>128.6858355552203</v>
       </c>
       <c r="AP3">
-        <v>-3.925473814878226</v>
+        <v>-3.925473814866919</v>
       </c>
       <c r="AQ3">
-        <v>-153.8407182453229</v>
+        <v>-153.8407182453308</v>
       </c>
       <c r="AR3">
-        <v>128.6858355541858</v>
+        <v>128.6858355541601</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10643,40 +10643,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.573518877049407E-10</v>
+        <v>7.573781868724753E-10</v>
       </c>
       <c r="O4">
-        <v>6.347096537758672E-10</v>
+        <v>6.347123254852467E-10</v>
       </c>
       <c r="P4">
-        <v>1.044171610127589E-09</v>
+        <v>1.044180721951543E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.573599797530956E-10</v>
+        <v>-7.57394093334484E-10</v>
       </c>
       <c r="R4">
-        <v>-6.347082089572066E-10</v>
+        <v>-6.347123254618007E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044168358910119E-09</v>
+        <v>-1.04417811854989E-09</v>
       </c>
       <c r="T4">
-        <v>-2.364059850794393E-10</v>
+        <v>-2.364077897240457E-10</v>
       </c>
       <c r="U4">
-        <v>-1.449757891255728E-09</v>
+        <v>-1.449766798245036E-09</v>
       </c>
       <c r="V4">
-        <v>2.677874887823922E-10</v>
+        <v>2.67776109602875E-10</v>
       </c>
       <c r="W4">
-        <v>2.364065403585395E-10</v>
+        <v>2.364129463041981E-10</v>
       </c>
       <c r="X4">
-        <v>1.449768820211001E-09</v>
+        <v>1.449766798271638E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.677848853775833E-10</v>
+        <v>-2.677793607702928E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10697,40 +10697,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.85614983165922</v>
+        <v>0.8561498316593337</v>
       </c>
       <c r="AH4">
-        <v>0.6454597858794375</v>
+        <v>0.6454597858792556</v>
       </c>
       <c r="AI4">
-        <v>0.4396365303621529</v>
+        <v>0.4396365303622016</v>
       </c>
       <c r="AJ4">
-        <v>0.8561498316569923</v>
+        <v>0.8561498316571062</v>
       </c>
       <c r="AK4">
-        <v>0.6454597858855412</v>
+        <v>0.6454597858853591</v>
       </c>
       <c r="AL4">
-        <v>0.4396365303501945</v>
+        <v>0.439636530350243</v>
       </c>
       <c r="AM4">
-        <v>-3.925473814544185</v>
+        <v>-3.92547381453287</v>
       </c>
       <c r="AN4">
-        <v>-153.8407182441591</v>
+        <v>-153.840718244167</v>
       </c>
       <c r="AO4">
-        <v>128.685835555246</v>
+        <v>128.6858355552203</v>
       </c>
       <c r="AP4">
-        <v>-3.925473814878226</v>
+        <v>-3.925473814866919</v>
       </c>
       <c r="AQ4">
-        <v>-153.8407182453229</v>
+        <v>-153.8407182453308</v>
       </c>
       <c r="AR4">
-        <v>128.6858355541858</v>
+        <v>128.6858355541601</v>
       </c>
     </row>
   </sheetData>
@@ -10921,40 +10921,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.272197829251245E-09</v>
+        <v>-2.27219398131426E-09</v>
       </c>
       <c r="O2">
-        <v>-1.904150528396024E-09</v>
+        <v>-1.904164419540877E-09</v>
       </c>
       <c r="P2">
-        <v>-3.132500529693681E-09</v>
+        <v>-3.132509629403166E-09</v>
       </c>
       <c r="Q2">
-        <v>2.272190292505188E-09</v>
+        <v>2.272182120904799E-09</v>
       </c>
       <c r="R2">
-        <v>1.904168342586301E-09</v>
+        <v>1.904164419751895E-09</v>
       </c>
       <c r="S2">
-        <v>3.132506384476927E-09</v>
+        <v>3.132514836370599E-09</v>
       </c>
       <c r="T2">
-        <v>7.092195805501685E-10</v>
+        <v>7.091867958873243E-10</v>
       </c>
       <c r="U2">
-        <v>4.349317583472807E-09</v>
+        <v>4.349286915460723E-09</v>
       </c>
       <c r="V2">
-        <v>-8.03340343370664E-10</v>
+        <v>-8.033556336731951E-10</v>
       </c>
       <c r="W2">
-        <v>-7.092109331891603E-10</v>
+        <v>-7.091819169144182E-10</v>
       </c>
       <c r="X2">
-        <v>-4.349312239813861E-09</v>
+        <v>-4.3492869152213E-09</v>
       </c>
       <c r="Y2">
-        <v>8.033396957942729E-10</v>
+        <v>8.033491315245803E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10975,40 +10975,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8561498316503073</v>
+        <v>0.8561498316504214</v>
       </c>
       <c r="AH2">
-        <v>0.645459785903853</v>
+        <v>0.6454597859036704</v>
       </c>
       <c r="AI2">
-        <v>0.4396365303143204</v>
+        <v>0.4396365303143684</v>
       </c>
       <c r="AJ2">
-        <v>0.8561498316569923</v>
+        <v>0.8561498316571062</v>
       </c>
       <c r="AK2">
-        <v>0.6454597858855412</v>
+        <v>0.6454597858853591</v>
       </c>
       <c r="AL2">
-        <v>0.4396365303501945</v>
+        <v>0.439636530350243</v>
       </c>
       <c r="AM2">
-        <v>-3.925473815880364</v>
+        <v>-3.925473815869046</v>
       </c>
       <c r="AN2">
-        <v>-153.8407182488145</v>
+        <v>-153.8407182488224</v>
       </c>
       <c r="AO2">
-        <v>128.6858355510056</v>
+        <v>128.6858355509798</v>
       </c>
       <c r="AP2">
-        <v>-3.925473814878226</v>
+        <v>-3.925473814866919</v>
       </c>
       <c r="AQ2">
-        <v>-153.8407182453229</v>
+        <v>-153.8407182453308</v>
       </c>
       <c r="AR2">
-        <v>128.6858355541858</v>
+        <v>128.6858355541601</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11052,40 +11052,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.573796546099041E-10</v>
+        <v>7.573781868724753E-10</v>
       </c>
       <c r="O3">
-        <v>6.347096537758672E-10</v>
+        <v>6.347123254852467E-10</v>
       </c>
       <c r="P3">
-        <v>1.044175521252364E-09</v>
+        <v>1.044180721951543E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.573877466580588E-10</v>
+        <v>-7.57394093334484E-10</v>
       </c>
       <c r="R3">
-        <v>-6.347082089572066E-10</v>
+        <v>-6.347123254618007E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044178772422939E-09</v>
+        <v>-1.04417811854989E-09</v>
       </c>
       <c r="T3">
-        <v>-2.364160205944926E-10</v>
+        <v>-2.364077897240457E-10</v>
       </c>
       <c r="U3">
-        <v>-1.449757891255728E-09</v>
+        <v>-1.449766798245036E-09</v>
       </c>
       <c r="V3">
-        <v>2.677692772498926E-10</v>
+        <v>2.67776109602875E-10</v>
       </c>
       <c r="W3">
-        <v>2.364165758735931E-10</v>
+        <v>2.364129463041981E-10</v>
       </c>
       <c r="X3">
-        <v>1.449768820211001E-09</v>
+        <v>1.449766798271638E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.677718806014938E-10</v>
+        <v>-2.677793607702928E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11106,40 +11106,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8561498316592202</v>
+        <v>0.8561498316593337</v>
       </c>
       <c r="AH3">
-        <v>0.6454597858794374</v>
+        <v>0.6454597858792556</v>
       </c>
       <c r="AI3">
-        <v>0.4396365303621528</v>
+        <v>0.4396365303622016</v>
       </c>
       <c r="AJ3">
-        <v>0.8561498316569923</v>
+        <v>0.8561498316571062</v>
       </c>
       <c r="AK3">
-        <v>0.6454597858855412</v>
+        <v>0.6454597858853591</v>
       </c>
       <c r="AL3">
-        <v>0.4396365303501945</v>
+        <v>0.439636530350243</v>
       </c>
       <c r="AM3">
-        <v>-3.925473814544177</v>
+        <v>-3.92547381453287</v>
       </c>
       <c r="AN3">
-        <v>-153.8407182441591</v>
+        <v>-153.840718244167</v>
       </c>
       <c r="AO3">
-        <v>128.685835555246</v>
+        <v>128.6858355552203</v>
       </c>
       <c r="AP3">
-        <v>-3.925473814878226</v>
+        <v>-3.925473814866919</v>
       </c>
       <c r="AQ3">
-        <v>-153.8407182453229</v>
+        <v>-153.8407182453308</v>
       </c>
       <c r="AR3">
-        <v>128.6858355541858</v>
+        <v>128.6858355541601</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11183,40 +11183,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.573518877049407E-10</v>
+        <v>7.573781868724753E-10</v>
       </c>
       <c r="O4">
-        <v>6.347096537758672E-10</v>
+        <v>6.347123254852467E-10</v>
       </c>
       <c r="P4">
-        <v>1.044171610127589E-09</v>
+        <v>1.044180721951543E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.573599797530956E-10</v>
+        <v>-7.57394093334484E-10</v>
       </c>
       <c r="R4">
-        <v>-6.347082089572066E-10</v>
+        <v>-6.347123254618007E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044168358910119E-09</v>
+        <v>-1.04417811854989E-09</v>
       </c>
       <c r="T4">
-        <v>-2.364059850794393E-10</v>
+        <v>-2.364077897240457E-10</v>
       </c>
       <c r="U4">
-        <v>-1.449757891255728E-09</v>
+        <v>-1.449766798245036E-09</v>
       </c>
       <c r="V4">
-        <v>2.677874887823922E-10</v>
+        <v>2.67776109602875E-10</v>
       </c>
       <c r="W4">
-        <v>2.364065403585395E-10</v>
+        <v>2.364129463041981E-10</v>
       </c>
       <c r="X4">
-        <v>1.449768820211001E-09</v>
+        <v>1.449766798271638E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.677848853775833E-10</v>
+        <v>-2.677793607702928E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11237,40 +11237,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.85614983165922</v>
+        <v>0.8561498316593337</v>
       </c>
       <c r="AH4">
-        <v>0.6454597858794375</v>
+        <v>0.6454597858792556</v>
       </c>
       <c r="AI4">
-        <v>0.4396365303621529</v>
+        <v>0.4396365303622016</v>
       </c>
       <c r="AJ4">
-        <v>0.8561498316569923</v>
+        <v>0.8561498316571062</v>
       </c>
       <c r="AK4">
-        <v>0.6454597858855412</v>
+        <v>0.6454597858853591</v>
       </c>
       <c r="AL4">
-        <v>0.4396365303501945</v>
+        <v>0.439636530350243</v>
       </c>
       <c r="AM4">
-        <v>-3.925473814544185</v>
+        <v>-3.92547381453287</v>
       </c>
       <c r="AN4">
-        <v>-153.8407182441591</v>
+        <v>-153.840718244167</v>
       </c>
       <c r="AO4">
-        <v>128.685835555246</v>
+        <v>128.6858355552203</v>
       </c>
       <c r="AP4">
-        <v>-3.925473814878226</v>
+        <v>-3.925473814866919</v>
       </c>
       <c r="AQ4">
-        <v>-153.8407182453229</v>
+        <v>-153.8407182453308</v>
       </c>
       <c r="AR4">
-        <v>128.6858355541858</v>
+        <v>128.6858355541601</v>
       </c>
     </row>
   </sheetData>
@@ -11461,40 +11461,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444432804308156E-09</v>
+        <v>-2.444445436179144E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111141220671274E-10</v>
+        <v>-6.111196485112887E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111078067404257E-10</v>
+        <v>-6.111014908042047E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444432804408827E-09</v>
+        <v>2.444447015263674E-09</v>
       </c>
       <c r="R2">
-        <v>6.111157017556817E-10</v>
+        <v>6.111235966756232E-10</v>
       </c>
       <c r="S2">
-        <v>6.111093864289837E-10</v>
+        <v>6.111030704927656E-10</v>
       </c>
       <c r="T2">
-        <v>-3.157966158335943E-15</v>
+        <v>3.157969550172746E-15</v>
       </c>
       <c r="U2">
-        <v>3.175407589588605E-09</v>
+        <v>3.175413905523551E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175412329677697E-09</v>
+        <v>-3.175409171709781E-09</v>
       </c>
       <c r="W2">
-        <v>5.793513778441608E-20</v>
+        <v>-6.315877771370371E-15</v>
       </c>
       <c r="X2">
-        <v>-3.175413905107594E-09</v>
+        <v>-3.175409168155542E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175412330094134E-09</v>
+        <v>3.175412330093932E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -11515,40 +11515,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6666666666635033</v>
+        <v>0.6666666666635386</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670295</v>
+        <v>0.3333333331669939</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964809</v>
+        <v>0.3333333334964453</v>
       </c>
       <c r="AJ2">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909947</v>
       </c>
       <c r="AK2">
-        <v>0.333333333138604</v>
+        <v>0.3333333331385684</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523266</v>
       </c>
       <c r="AM2">
-        <v>-3.647478582900219E-11</v>
+        <v>-4.302724841589092E-11</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999981412</v>
+        <v>-179.999999998128</v>
       </c>
       <c r="AO2">
-        <v>179.9999999980558</v>
+        <v>179.9999999980688</v>
       </c>
       <c r="AP2">
-        <v>1.357958735690672E-09</v>
+        <v>1.351451185997357E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844725</v>
       </c>
       <c r="AR2">
-        <v>179.999999987189</v>
+        <v>179.999999987202</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11592,40 +11592,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148330405881314E-10</v>
+        <v>8.148172507496017E-10</v>
       </c>
       <c r="O3">
-        <v>2.037141815720551E-10</v>
+        <v>2.036991812256284E-10</v>
       </c>
       <c r="P3">
-        <v>2.036983919363871E-10</v>
+        <v>2.03698391936128E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.14821987689987E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037094445421823E-10</v>
+        <v>-2.036983916554038E-10</v>
       </c>
       <c r="S3">
-        <v>-2.036968128742304E-10</v>
+        <v>-2.036968128739674E-10</v>
       </c>
       <c r="T3">
-        <v>-1.894778036504951E-14</v>
+        <v>-9.473877313752006E-15</v>
       </c>
       <c r="U3">
-        <v>-1.05849235477434E-09</v>
+        <v>-1.058467091032485E-09</v>
       </c>
       <c r="V3">
-        <v>1.058474987367939E-09</v>
+        <v>1.058478145335587E-09</v>
       </c>
       <c r="W3">
-        <v>1.57898192609352E-14</v>
+        <v>-1.921942856871275E-20</v>
       </c>
       <c r="X3">
-        <v>1.058489196852902E-09</v>
+        <v>1.058471828030325E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058481303257101E-09</v>
+        <v>-1.0584749873216E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11646,40 +11646,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6666666667001113</v>
+        <v>0.6666666667001471</v>
       </c>
       <c r="AH3">
-        <v>0.3333333331291287</v>
+        <v>0.3333333331290928</v>
       </c>
       <c r="AI3">
-        <v>0.3333333335709896</v>
+        <v>0.3333333335709535</v>
       </c>
       <c r="AJ3">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909947</v>
       </c>
       <c r="AK3">
-        <v>0.333333333138604</v>
+        <v>0.3333333331385684</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523266</v>
       </c>
       <c r="AM3">
-        <v>1.822789555263585E-09</v>
+        <v>1.816310309791498E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999799336</v>
+        <v>-179.9999999799207</v>
       </c>
       <c r="AO3">
-        <v>179.9999999835668</v>
+        <v>179.9999999835796</v>
       </c>
       <c r="AP3">
-        <v>1.357958735690672E-09</v>
+        <v>1.351451185997357E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844725</v>
       </c>
       <c r="AR3">
-        <v>179.999999987189</v>
+        <v>179.999999987202</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11723,40 +11723,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148204087172729E-10</v>
+        <v>8.148172507496017E-10</v>
       </c>
       <c r="O4">
-        <v>2.037015497011994E-10</v>
+        <v>2.036991812256284E-10</v>
       </c>
       <c r="P4">
-        <v>2.037047078718159E-10</v>
+        <v>2.03698391936128E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.14821987689987E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037031286067536E-10</v>
+        <v>-2.036983916554038E-10</v>
       </c>
       <c r="S4">
-        <v>-2.036999708419442E-10</v>
+        <v>-2.036968128739674E-10</v>
       </c>
       <c r="T4">
-        <v>-2.210574808019317E-14</v>
+        <v>-9.473877313752006E-15</v>
       </c>
       <c r="U4">
-        <v>-1.058479722903494E-09</v>
+        <v>-1.058467091032485E-09</v>
       </c>
       <c r="V4">
-        <v>1.05846235549707E-09</v>
+        <v>1.058478145335587E-09</v>
       </c>
       <c r="W4">
-        <v>1.894778697553961E-14</v>
+        <v>-1.921942856871275E-20</v>
       </c>
       <c r="X4">
-        <v>1.058476564982053E-09</v>
+        <v>1.058471828030325E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.058468671386234E-09</v>
+        <v>-1.0584749873216E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11777,40 +11777,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6666666667001111</v>
+        <v>0.6666666667001471</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291286</v>
+        <v>0.3333333331290928</v>
       </c>
       <c r="AI4">
-        <v>0.3333333335709895</v>
+        <v>0.3333333335709535</v>
       </c>
       <c r="AJ4">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909947</v>
       </c>
       <c r="AK4">
-        <v>0.333333333138604</v>
+        <v>0.3333333331385684</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523266</v>
       </c>
       <c r="AM4">
-        <v>1.822782942641482E-09</v>
+        <v>1.816310309791498E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799337</v>
+        <v>-179.9999999799207</v>
       </c>
       <c r="AO4">
-        <v>179.9999999835668</v>
+        <v>179.9999999835796</v>
       </c>
       <c r="AP4">
-        <v>1.357958735690672E-09</v>
+        <v>1.351451185997357E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844725</v>
       </c>
       <c r="AR4">
-        <v>179.999999987189</v>
+        <v>179.999999987202</v>
       </c>
     </row>
   </sheetData>
@@ -12226,40 +12226,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444432804308156E-09</v>
+        <v>-2.444445436179144E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111141220671274E-10</v>
+        <v>-6.111196485112887E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111078067404257E-10</v>
+        <v>-6.111014908042047E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444432804408827E-09</v>
+        <v>2.444447015263674E-09</v>
       </c>
       <c r="R2">
-        <v>6.111157017556817E-10</v>
+        <v>6.111235966756232E-10</v>
       </c>
       <c r="S2">
-        <v>6.111093864289837E-10</v>
+        <v>6.111030704927656E-10</v>
       </c>
       <c r="T2">
-        <v>-3.157966158335943E-15</v>
+        <v>3.157969550172746E-15</v>
       </c>
       <c r="U2">
-        <v>3.175407589588605E-09</v>
+        <v>3.175413905523551E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175412329677697E-09</v>
+        <v>-3.175409171709781E-09</v>
       </c>
       <c r="W2">
-        <v>5.793513778441608E-20</v>
+        <v>-6.315877771370371E-15</v>
       </c>
       <c r="X2">
-        <v>-3.175413905107594E-09</v>
+        <v>-3.175409168155542E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175412330094134E-09</v>
+        <v>3.175412330093932E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12280,40 +12280,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6666666666635033</v>
+        <v>0.6666666666635386</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670295</v>
+        <v>0.3333333331669939</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964809</v>
+        <v>0.3333333334964453</v>
       </c>
       <c r="AJ2">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909947</v>
       </c>
       <c r="AK2">
-        <v>0.333333333138604</v>
+        <v>0.3333333331385684</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523266</v>
       </c>
       <c r="AM2">
-        <v>-3.647478582900219E-11</v>
+        <v>-4.302724841589092E-11</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999981412</v>
+        <v>-179.999999998128</v>
       </c>
       <c r="AO2">
-        <v>179.9999999980558</v>
+        <v>179.9999999980688</v>
       </c>
       <c r="AP2">
-        <v>1.357958735690672E-09</v>
+        <v>1.351451185997357E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844725</v>
       </c>
       <c r="AR2">
-        <v>179.999999987189</v>
+        <v>179.999999987202</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12357,40 +12357,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148330405881314E-10</v>
+        <v>8.148172507496017E-10</v>
       </c>
       <c r="O3">
-        <v>2.037141815720551E-10</v>
+        <v>2.036991812256284E-10</v>
       </c>
       <c r="P3">
-        <v>2.036983919363871E-10</v>
+        <v>2.03698391936128E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.14821987689987E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037094445421823E-10</v>
+        <v>-2.036983916554038E-10</v>
       </c>
       <c r="S3">
-        <v>-2.036968128742304E-10</v>
+        <v>-2.036968128739674E-10</v>
       </c>
       <c r="T3">
-        <v>-1.894778036504951E-14</v>
+        <v>-9.473877313752006E-15</v>
       </c>
       <c r="U3">
-        <v>-1.05849235477434E-09</v>
+        <v>-1.058467091032485E-09</v>
       </c>
       <c r="V3">
-        <v>1.058474987367939E-09</v>
+        <v>1.058478145335587E-09</v>
       </c>
       <c r="W3">
-        <v>1.57898192609352E-14</v>
+        <v>-1.921942856871275E-20</v>
       </c>
       <c r="X3">
-        <v>1.058489196852902E-09</v>
+        <v>1.058471828030325E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058481303257101E-09</v>
+        <v>-1.0584749873216E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12411,40 +12411,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6666666667001113</v>
+        <v>0.6666666667001471</v>
       </c>
       <c r="AH3">
-        <v>0.3333333331291287</v>
+        <v>0.3333333331290928</v>
       </c>
       <c r="AI3">
-        <v>0.3333333335709896</v>
+        <v>0.3333333335709535</v>
       </c>
       <c r="AJ3">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909947</v>
       </c>
       <c r="AK3">
-        <v>0.333333333138604</v>
+        <v>0.3333333331385684</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523266</v>
       </c>
       <c r="AM3">
-        <v>1.822789555263585E-09</v>
+        <v>1.816310309791498E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999799336</v>
+        <v>-179.9999999799207</v>
       </c>
       <c r="AO3">
-        <v>179.9999999835668</v>
+        <v>179.9999999835796</v>
       </c>
       <c r="AP3">
-        <v>1.357958735690672E-09</v>
+        <v>1.351451185997357E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844725</v>
       </c>
       <c r="AR3">
-        <v>179.999999987189</v>
+        <v>179.999999987202</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -12488,40 +12488,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148204087172729E-10</v>
+        <v>8.148172507496017E-10</v>
       </c>
       <c r="O4">
-        <v>2.037015497011994E-10</v>
+        <v>2.036991812256284E-10</v>
       </c>
       <c r="P4">
-        <v>2.037047078718159E-10</v>
+        <v>2.03698391936128E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.14821987689987E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037031286067536E-10</v>
+        <v>-2.036983916554038E-10</v>
       </c>
       <c r="S4">
-        <v>-2.036999708419442E-10</v>
+        <v>-2.036968128739674E-10</v>
       </c>
       <c r="T4">
-        <v>-2.210574808019317E-14</v>
+        <v>-9.473877313752006E-15</v>
       </c>
       <c r="U4">
-        <v>-1.058479722903494E-09</v>
+        <v>-1.058467091032485E-09</v>
       </c>
       <c r="V4">
-        <v>1.05846235549707E-09</v>
+        <v>1.058478145335587E-09</v>
       </c>
       <c r="W4">
-        <v>1.894778697553961E-14</v>
+        <v>-1.921942856871275E-20</v>
       </c>
       <c r="X4">
-        <v>1.058476564982053E-09</v>
+        <v>1.058471828030325E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.058468671386234E-09</v>
+        <v>-1.0584749873216E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12542,40 +12542,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6666666667001111</v>
+        <v>0.6666666667001471</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291286</v>
+        <v>0.3333333331290928</v>
       </c>
       <c r="AI4">
-        <v>0.3333333335709895</v>
+        <v>0.3333333335709535</v>
       </c>
       <c r="AJ4">
-        <v>0.6666666666909591</v>
+        <v>0.6666666666909947</v>
       </c>
       <c r="AK4">
-        <v>0.333333333138604</v>
+        <v>0.3333333331385684</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523266</v>
       </c>
       <c r="AM4">
-        <v>1.822782942641482E-09</v>
+        <v>1.816310309791498E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799337</v>
+        <v>-179.9999999799207</v>
       </c>
       <c r="AO4">
-        <v>179.9999999835668</v>
+        <v>179.9999999835796</v>
       </c>
       <c r="AP4">
-        <v>1.357958735690672E-09</v>
+        <v>1.351451185997357E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844725</v>
       </c>
       <c r="AR4">
-        <v>179.999999987189</v>
+        <v>179.999999987202</v>
       </c>
     </row>
   </sheetData>
@@ -12766,40 +12766,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.941662868835355E-09</v>
+        <v>-1.941660868503747E-09</v>
       </c>
       <c r="O2">
-        <v>-1.538365458783696E-09</v>
+        <v>-1.538346567141732E-09</v>
       </c>
       <c r="P2">
-        <v>-2.506375115211546E-09</v>
+        <v>-2.506376899628319E-09</v>
       </c>
       <c r="Q2">
-        <v>1.941658451956075E-09</v>
+        <v>1.941665165148359E-09</v>
       </c>
       <c r="R2">
-        <v>1.538359644995594E-09</v>
+        <v>1.538345633761834E-09</v>
       </c>
       <c r="S2">
-        <v>2.506375115574378E-09</v>
+        <v>2.506376899991153E-09</v>
       </c>
       <c r="T2">
-        <v>5.58898620578392E-10</v>
+        <v>5.588875506243644E-10</v>
       </c>
       <c r="U2">
-        <v>3.623731033729635E-09</v>
+        <v>3.623723416788027E-09</v>
       </c>
       <c r="V2">
-        <v>-8.292833431117238E-10</v>
+        <v>-8.292813237591686E-10</v>
       </c>
       <c r="W2">
-        <v>-5.588965047941477E-10</v>
+        <v>-5.588914812551256E-10</v>
       </c>
       <c r="X2">
-        <v>-3.623726314952862E-09</v>
+        <v>-3.623716486894612E-09</v>
       </c>
       <c r="Y2">
-        <v>8.292833433261376E-10</v>
+        <v>8.292813239735799E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12820,40 +12820,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7679592756099295</v>
+        <v>0.7679592756099649</v>
       </c>
       <c r="AH2">
-        <v>0.5655462792825746</v>
+        <v>0.5655462792825657</v>
       </c>
       <c r="AI2">
-        <v>0.3792589156706158</v>
+        <v>0.3792589156705574</v>
       </c>
       <c r="AJ2">
-        <v>0.7679592756256414</v>
+        <v>0.7679592756256769</v>
       </c>
       <c r="AK2">
-        <v>0.56554627927459</v>
+        <v>0.5655462792745807</v>
       </c>
       <c r="AL2">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297185</v>
       </c>
       <c r="AM2">
-        <v>-3.793471525611846</v>
+        <v>-3.793471525615359</v>
       </c>
       <c r="AN2">
-        <v>-155.6266320097133</v>
+        <v>-155.6266320097074</v>
       </c>
       <c r="AO2">
-        <v>131.4656840130514</v>
+        <v>131.4656840130527</v>
       </c>
       <c r="AP2">
-        <v>-3.793471524370565</v>
+        <v>-3.793471524374052</v>
       </c>
       <c r="AQ2">
-        <v>-155.6266320036331</v>
+        <v>-155.6266320036272</v>
       </c>
       <c r="AR2">
-        <v>131.4656840149957</v>
+        <v>131.465684014997</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12897,40 +12897,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.472167583518609E-10</v>
+        <v>6.472257776379888E-10</v>
       </c>
       <c r="O3">
-        <v>5.127859698558983E-10</v>
+        <v>5.127742842822796E-10</v>
       </c>
       <c r="P3">
-        <v>8.354619618584123E-10</v>
+        <v>8.354577665297723E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.472177861383254E-10</v>
+        <v>-6.4722487017834E-10</v>
       </c>
       <c r="R3">
-        <v>-5.127846924416655E-10</v>
+        <v>-5.127730068680481E-10</v>
       </c>
       <c r="S3">
-        <v>-8.354640594823499E-10</v>
+        <v>-8.354571716837316E-10</v>
       </c>
       <c r="T3">
-        <v>-1.862895397688071E-10</v>
+        <v>-1.863047208919212E-10</v>
       </c>
       <c r="U3">
-        <v>-1.207913445361748E-09</v>
+        <v>-1.207905504728587E-09</v>
       </c>
       <c r="V3">
-        <v>2.764309534297428E-10</v>
+        <v>2.764248487489185E-10</v>
       </c>
       <c r="W3">
-        <v>1.862877850335989E-10</v>
+        <v>1.863046607261577E-10</v>
       </c>
       <c r="X3">
-        <v>1.207915494656365E-09</v>
+        <v>1.207907554023204E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.764340057463182E-10</v>
+        <v>-2.764255218425901E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12951,40 +12951,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7679592756308786</v>
+        <v>0.7679592756309143</v>
       </c>
       <c r="AH3">
-        <v>0.5655462792719284</v>
+        <v>0.5655462792719187</v>
       </c>
       <c r="AI3">
-        <v>0.3792589157494973</v>
+        <v>0.3792589157494389</v>
       </c>
       <c r="AJ3">
-        <v>0.7679592756256414</v>
+        <v>0.7679592756256769</v>
       </c>
       <c r="AK3">
-        <v>0.56554627927459</v>
+        <v>0.5655462792745807</v>
       </c>
       <c r="AL3">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297185</v>
       </c>
       <c r="AM3">
-        <v>-3.793471523956812</v>
+        <v>-3.793471523960265</v>
       </c>
       <c r="AN3">
-        <v>-155.6266320016063</v>
+        <v>-155.6266320016005</v>
       </c>
       <c r="AO3">
-        <v>131.4656840156438</v>
+        <v>131.465684015645</v>
       </c>
       <c r="AP3">
-        <v>-3.793471524370565</v>
+        <v>-3.793471524374052</v>
       </c>
       <c r="AQ3">
-        <v>-155.6266320036331</v>
+        <v>-155.6266320036272</v>
       </c>
       <c r="AR3">
-        <v>131.4656840149957</v>
+        <v>131.465684014997</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13028,40 +13028,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.472199068140815E-10</v>
+        <v>6.472257776379888E-10</v>
       </c>
       <c r="O4">
-        <v>5.127742270102994E-10</v>
+        <v>5.127742842822796E-10</v>
       </c>
       <c r="P4">
-        <v>8.354550740599275E-10</v>
+        <v>8.354577665297723E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.472209346005458E-10</v>
+        <v>-6.4722487017834E-10</v>
       </c>
       <c r="R4">
-        <v>-5.127776009168139E-10</v>
+        <v>-5.127730068680481E-10</v>
       </c>
       <c r="S4">
-        <v>-8.354532896024351E-10</v>
+        <v>-8.354571716837316E-10</v>
       </c>
       <c r="T4">
-        <v>-1.862970400765897E-10</v>
+        <v>-1.863047208919212E-10</v>
       </c>
       <c r="U4">
-        <v>-1.207907001220293E-09</v>
+        <v>-1.207905504728587E-09</v>
       </c>
       <c r="V4">
-        <v>2.764224695260389E-10</v>
+        <v>2.764248487489185E-10</v>
       </c>
       <c r="W4">
-        <v>1.862952853413815E-10</v>
+        <v>1.863046607261577E-10</v>
       </c>
       <c r="X4">
-        <v>1.207912825364798E-09</v>
+        <v>1.207907554023204E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.764244888546993E-10</v>
+        <v>-2.764255218425901E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13082,40 +13082,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7679592756308785</v>
+        <v>0.7679592756309143</v>
       </c>
       <c r="AH4">
-        <v>0.5655462792719284</v>
+        <v>0.5655462792719187</v>
       </c>
       <c r="AI4">
-        <v>0.3792589157494971</v>
+        <v>0.3792589157494389</v>
       </c>
       <c r="AJ4">
-        <v>0.7679592756256414</v>
+        <v>0.7679592756256769</v>
       </c>
       <c r="AK4">
-        <v>0.56554627927459</v>
+        <v>0.5655462792745807</v>
       </c>
       <c r="AL4">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297185</v>
       </c>
       <c r="AM4">
-        <v>-3.793471523956809</v>
+        <v>-3.793471523960265</v>
       </c>
       <c r="AN4">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016005</v>
       </c>
       <c r="AO4">
-        <v>131.4656840156438</v>
+        <v>131.465684015645</v>
       </c>
       <c r="AP4">
-        <v>-3.793471524370565</v>
+        <v>-3.793471524374052</v>
       </c>
       <c r="AQ4">
-        <v>-155.6266320036331</v>
+        <v>-155.6266320036272</v>
       </c>
       <c r="AR4">
-        <v>131.4656840149957</v>
+        <v>131.465684014997</v>
       </c>
     </row>
   </sheetData>
@@ -13306,40 +13306,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.941662868835355E-09</v>
+        <v>-1.941660868503747E-09</v>
       </c>
       <c r="O2">
-        <v>-1.538365458783696E-09</v>
+        <v>-1.538346567141732E-09</v>
       </c>
       <c r="P2">
-        <v>-2.506375115211546E-09</v>
+        <v>-2.506376899628319E-09</v>
       </c>
       <c r="Q2">
-        <v>1.941658451956075E-09</v>
+        <v>1.941665165148359E-09</v>
       </c>
       <c r="R2">
-        <v>1.538359644995594E-09</v>
+        <v>1.538345633761834E-09</v>
       </c>
       <c r="S2">
-        <v>2.506375115574378E-09</v>
+        <v>2.506376899991153E-09</v>
       </c>
       <c r="T2">
-        <v>5.58898620578392E-10</v>
+        <v>5.588875506243644E-10</v>
       </c>
       <c r="U2">
-        <v>3.623731033729635E-09</v>
+        <v>3.623723416788027E-09</v>
       </c>
       <c r="V2">
-        <v>-8.292833431117238E-10</v>
+        <v>-8.292813237591686E-10</v>
       </c>
       <c r="W2">
-        <v>-5.588965047941477E-10</v>
+        <v>-5.588914812551256E-10</v>
       </c>
       <c r="X2">
-        <v>-3.623726314952862E-09</v>
+        <v>-3.623716486894612E-09</v>
       </c>
       <c r="Y2">
-        <v>8.292833433261376E-10</v>
+        <v>8.292813239735799E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -13360,40 +13360,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7679592756099295</v>
+        <v>0.7679592756099649</v>
       </c>
       <c r="AH2">
-        <v>0.5655462792825746</v>
+        <v>0.5655462792825657</v>
       </c>
       <c r="AI2">
-        <v>0.3792589156706158</v>
+        <v>0.3792589156705574</v>
       </c>
       <c r="AJ2">
-        <v>0.7679592756256414</v>
+        <v>0.7679592756256769</v>
       </c>
       <c r="AK2">
-        <v>0.56554627927459</v>
+        <v>0.5655462792745807</v>
       </c>
       <c r="AL2">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297185</v>
       </c>
       <c r="AM2">
-        <v>-3.793471525611846</v>
+        <v>-3.793471525615359</v>
       </c>
       <c r="AN2">
-        <v>-155.6266320097133</v>
+        <v>-155.6266320097074</v>
       </c>
       <c r="AO2">
-        <v>131.4656840130514</v>
+        <v>131.4656840130527</v>
       </c>
       <c r="AP2">
-        <v>-3.793471524370565</v>
+        <v>-3.793471524374052</v>
       </c>
       <c r="AQ2">
-        <v>-155.6266320036331</v>
+        <v>-155.6266320036272</v>
       </c>
       <c r="AR2">
-        <v>131.4656840149957</v>
+        <v>131.465684014997</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -13437,40 +13437,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.472167583518609E-10</v>
+        <v>6.472257776379888E-10</v>
       </c>
       <c r="O3">
-        <v>5.127859698558983E-10</v>
+        <v>5.127742842822796E-10</v>
       </c>
       <c r="P3">
-        <v>8.354619618584123E-10</v>
+        <v>8.354577665297723E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.472177861383254E-10</v>
+        <v>-6.4722487017834E-10</v>
       </c>
       <c r="R3">
-        <v>-5.127846924416655E-10</v>
+        <v>-5.127730068680481E-10</v>
       </c>
       <c r="S3">
-        <v>-8.354640594823499E-10</v>
+        <v>-8.354571716837316E-10</v>
       </c>
       <c r="T3">
-        <v>-1.862895397688071E-10</v>
+        <v>-1.863047208919212E-10</v>
       </c>
       <c r="U3">
-        <v>-1.207913445361748E-09</v>
+        <v>-1.207905504728587E-09</v>
       </c>
       <c r="V3">
-        <v>2.764309534297428E-10</v>
+        <v>2.764248487489185E-10</v>
       </c>
       <c r="W3">
-        <v>1.862877850335989E-10</v>
+        <v>1.863046607261577E-10</v>
       </c>
       <c r="X3">
-        <v>1.207915494656365E-09</v>
+        <v>1.207907554023204E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.764340057463182E-10</v>
+        <v>-2.764255218425901E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13491,40 +13491,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7679592756308786</v>
+        <v>0.7679592756309143</v>
       </c>
       <c r="AH3">
-        <v>0.5655462792719284</v>
+        <v>0.5655462792719187</v>
       </c>
       <c r="AI3">
-        <v>0.3792589157494973</v>
+        <v>0.3792589157494389</v>
       </c>
       <c r="AJ3">
-        <v>0.7679592756256414</v>
+        <v>0.7679592756256769</v>
       </c>
       <c r="AK3">
-        <v>0.56554627927459</v>
+        <v>0.5655462792745807</v>
       </c>
       <c r="AL3">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297185</v>
       </c>
       <c r="AM3">
-        <v>-3.793471523956812</v>
+        <v>-3.793471523960265</v>
       </c>
       <c r="AN3">
-        <v>-155.6266320016063</v>
+        <v>-155.6266320016005</v>
       </c>
       <c r="AO3">
-        <v>131.4656840156438</v>
+        <v>131.465684015645</v>
       </c>
       <c r="AP3">
-        <v>-3.793471524370565</v>
+        <v>-3.793471524374052</v>
       </c>
       <c r="AQ3">
-        <v>-155.6266320036331</v>
+        <v>-155.6266320036272</v>
       </c>
       <c r="AR3">
-        <v>131.4656840149957</v>
+        <v>131.465684014997</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13568,40 +13568,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.472199068140815E-10</v>
+        <v>6.472257776379888E-10</v>
       </c>
       <c r="O4">
-        <v>5.127742270102994E-10</v>
+        <v>5.127742842822796E-10</v>
       </c>
       <c r="P4">
-        <v>8.354550740599275E-10</v>
+        <v>8.354577665297723E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.472209346005458E-10</v>
+        <v>-6.4722487017834E-10</v>
       </c>
       <c r="R4">
-        <v>-5.127776009168139E-10</v>
+        <v>-5.127730068680481E-10</v>
       </c>
       <c r="S4">
-        <v>-8.354532896024351E-10</v>
+        <v>-8.354571716837316E-10</v>
       </c>
       <c r="T4">
-        <v>-1.862970400765897E-10</v>
+        <v>-1.863047208919212E-10</v>
       </c>
       <c r="U4">
-        <v>-1.207907001220293E-09</v>
+        <v>-1.207905504728587E-09</v>
       </c>
       <c r="V4">
-        <v>2.764224695260389E-10</v>
+        <v>2.764248487489185E-10</v>
       </c>
       <c r="W4">
-        <v>1.862952853413815E-10</v>
+        <v>1.863046607261577E-10</v>
       </c>
       <c r="X4">
-        <v>1.207912825364798E-09</v>
+        <v>1.207907554023204E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.764244888546993E-10</v>
+        <v>-2.764255218425901E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13622,40 +13622,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7679592756308785</v>
+        <v>0.7679592756309143</v>
       </c>
       <c r="AH4">
-        <v>0.5655462792719284</v>
+        <v>0.5655462792719187</v>
       </c>
       <c r="AI4">
-        <v>0.3792589157494971</v>
+        <v>0.3792589157494389</v>
       </c>
       <c r="AJ4">
-        <v>0.7679592756256414</v>
+        <v>0.7679592756256769</v>
       </c>
       <c r="AK4">
-        <v>0.56554627927459</v>
+        <v>0.5655462792745807</v>
       </c>
       <c r="AL4">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297185</v>
       </c>
       <c r="AM4">
-        <v>-3.793471523956809</v>
+        <v>-3.793471523960265</v>
       </c>
       <c r="AN4">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016005</v>
       </c>
       <c r="AO4">
-        <v>131.4656840156438</v>
+        <v>131.465684015645</v>
       </c>
       <c r="AP4">
-        <v>-3.793471524370565</v>
+        <v>-3.793471524374052</v>
       </c>
       <c r="AQ4">
-        <v>-155.6266320036331</v>
+        <v>-155.6266320036272</v>
       </c>
       <c r="AR4">
-        <v>131.4656840149957</v>
+        <v>131.465684014997</v>
       </c>
     </row>
   </sheetData>
@@ -14968,40 +14968,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052506537E-14</v>
+        <v>-2.084258736675753E-14</v>
       </c>
       <c r="O2">
-        <v>1.042124982428609E-14</v>
+        <v>2.605281130619693E-15</v>
       </c>
       <c r="P2">
-        <v>-4.453701581637349E-20</v>
+        <v>-2.08426334839908E-14</v>
       </c>
       <c r="Q2">
-        <v>5.210646841688501E-15</v>
+        <v>5.210646841692865E-15</v>
       </c>
       <c r="R2">
-        <v>2.605795522812271E-15</v>
+        <v>7.816440796777868E-15</v>
       </c>
       <c r="S2">
-        <v>4.727894349048249E-19</v>
+        <v>1.042176804399137E-14</v>
       </c>
       <c r="T2">
-        <v>2.08425873667533E-14</v>
+        <v>1.04212936833749E-14</v>
       </c>
       <c r="U2">
-        <v>5.763410493837118E-09</v>
+        <v>5.763394861895224E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763402682029841E-09</v>
+        <v>-5.763376628794242E-09</v>
       </c>
       <c r="W2">
-        <v>-1.042129368337668E-14</v>
+        <v>-2.605323420844421E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763394861410699E-09</v>
+        <v>-5.763387045439071E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763407893162584E-09</v>
+        <v>5.763387050573831E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15022,40 +15022,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808898</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057459</v>
+        <v>0.5500000117056147</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030184</v>
+        <v>0.5500000121028866</v>
       </c>
       <c r="AI2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808897</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593765</v>
+        <v>0.5500000116592461</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121492562</v>
       </c>
       <c r="AL2">
-        <v>6.92343595716384E-13</v>
+        <v>8.504034937349925E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995567</v>
+        <v>-179.9999999995723</v>
       </c>
       <c r="AN2">
-        <v>179.9999999995499</v>
+        <v>179.9999999995343</v>
       </c>
       <c r="AO2">
-        <v>7.082758124159204E-13</v>
+        <v>8.510916698356036E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999952994</v>
+        <v>-179.9999999953149</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952925</v>
+        <v>179.999999995277</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15099,40 +15099,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.04212936833772E-14</v>
+        <v>-3.647452789181907E-14</v>
       </c>
       <c r="O3">
-        <v>2.049494803798653E-19</v>
+        <v>2.605527845065366E-15</v>
       </c>
       <c r="P3">
-        <v>4.168537993086173E-14</v>
+        <v>2.084279307943075E-14</v>
       </c>
       <c r="Q3">
-        <v>-1.56319405250657E-14</v>
+        <v>1.042129368337567E-14</v>
       </c>
       <c r="R3">
-        <v>1.302645973070846E-14</v>
+        <v>1.823710709272208E-14</v>
       </c>
       <c r="S3">
-        <v>-5.210662603514871E-14</v>
+        <v>-3.126403918270794E-14</v>
       </c>
       <c r="T3">
-        <v>-3.647452789181846E-14</v>
+        <v>-2.605323420845038E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921126409769406E-09</v>
+        <v>-1.921110777828434E-09</v>
       </c>
       <c r="V3">
-        <v>1.921123806265545E-09</v>
+        <v>1.921139438205621E-09</v>
       </c>
       <c r="W3">
-        <v>4.689582157519516E-14</v>
+        <v>1.563194052506854E-14</v>
       </c>
       <c r="X3">
-        <v>1.921131620470234E-09</v>
+        <v>1.92111859385268E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.92111859556471E-09</v>
+        <v>-1.921129016857942E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15153,40 +15153,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808765</v>
+        <v>1.100000023808897</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439205</v>
+        <v>0.5500000116437903</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648446</v>
+        <v>0.5500000121647133</v>
       </c>
       <c r="AI3">
-        <v>1.100000023808766</v>
+        <v>1.100000023808897</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593765</v>
+        <v>0.5500000116592461</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121492562</v>
       </c>
       <c r="AL3">
-        <v>7.251392252311684E-13</v>
+        <v>8.522063799205885E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999938803</v>
+        <v>-179.9999999938959</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938735</v>
+        <v>179.9999999938579</v>
       </c>
       <c r="AO3">
-        <v>7.082758124159204E-13</v>
+        <v>8.510916698356036E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999952994</v>
+        <v>-179.9999999953149</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952925</v>
+        <v>179.999999995277</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15230,40 +15230,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.605323420844159E-14</v>
+        <v>-3.647452789181907E-14</v>
       </c>
       <c r="O4">
-        <v>2.049494803798653E-19</v>
+        <v>2.605527845065366E-15</v>
       </c>
       <c r="P4">
-        <v>2.084279255501348E-14</v>
+        <v>2.084279307943075E-14</v>
       </c>
       <c r="Q4">
-        <v>1.56319405250648E-14</v>
+        <v>1.042129368337567E-14</v>
       </c>
       <c r="R4">
-        <v>2.605166051974046E-15</v>
+        <v>1.823710709272208E-14</v>
       </c>
       <c r="S4">
-        <v>-2.084274497194647E-14</v>
+        <v>-3.126403918270794E-14</v>
       </c>
       <c r="T4">
-        <v>-2.08425873667538E-14</v>
+        <v>-2.605323420845038E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921126409769407E-09</v>
+        <v>-1.921110777828434E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123806265547E-09</v>
+        <v>1.921139438205621E-09</v>
       </c>
       <c r="W4">
-        <v>2.605323420844206E-14</v>
+        <v>1.563194052506854E-14</v>
       </c>
       <c r="X4">
-        <v>1.921131620470233E-09</v>
+        <v>1.92111859385268E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921129016858401E-09</v>
+        <v>-1.921129016857942E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15284,40 +15284,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808765</v>
+        <v>1.100000023808897</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439206</v>
+        <v>0.5500000116437903</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648444</v>
+        <v>0.5500000121647133</v>
       </c>
       <c r="AI4">
-        <v>1.100000023808766</v>
+        <v>1.100000023808897</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593765</v>
+        <v>0.5500000116592461</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121492562</v>
       </c>
       <c r="AL4">
-        <v>7.138106372806309E-13</v>
+        <v>8.522063799205885E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999938803</v>
+        <v>-179.9999999938959</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938734</v>
+        <v>179.9999999938579</v>
       </c>
       <c r="AO4">
-        <v>7.082758124159204E-13</v>
+        <v>8.510916698356036E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999952994</v>
+        <v>-179.9999999953149</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952925</v>
+        <v>179.999999995277</v>
       </c>
     </row>
   </sheetData>
